--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_12_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_12_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2791255.250968136</v>
+        <v>2788878.172101726</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9234840.036627064</v>
+        <v>9234840.036627067</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767344</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -701,16 +701,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="T2" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="R2" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -747,55 +747,55 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="G3" t="n">
+      <c r="U3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="V3" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>6.05642108929943</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -826,58 +826,58 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="W4" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,35 +914,35 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,58 +972,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>6.876045741711437</v>
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,53 +1051,53 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="V7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>6.602605461619501</v>
+        <v>11.91464376220975</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1221,58 +1221,58 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="T9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>13.47865120333094</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1288,70 +1288,70 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="V10" t="n">
         <v>13.47865120333094</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
       <c r="W10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>334.3195065741464</v>
       </c>
       <c r="F11" t="n">
-        <v>221.72964805589</v>
+        <v>359.2651822435961</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.3421963746779</v>
       </c>
       <c r="H11" t="n">
-        <v>247.3178024630195</v>
+        <v>85.06714705857479</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.29092681326765</v>
+        <v>62.29092681326762</v>
       </c>
       <c r="T11" t="n">
-        <v>156.4442721866651</v>
+        <v>156.444272186665</v>
       </c>
       <c r="U11" t="n">
         <v>203.3868151983338</v>
@@ -1436,7 +1436,7 @@
         <v>322.1202371803537</v>
       </c>
       <c r="Y11" t="n">
-        <v>338.6270751579382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.221116683822</v>
+        <v>132.2211166838219</v>
       </c>
       <c r="C13" t="n">
         <v>119.6359576005125</v>
@@ -1534,19 +1534,19 @@
         <v>101.004609520097</v>
       </c>
       <c r="E13" t="n">
-        <v>98.82309914845385</v>
+        <v>98.82309914845382</v>
       </c>
       <c r="F13" t="n">
-        <v>97.81018452481592</v>
+        <v>97.8101845248159</v>
       </c>
       <c r="G13" t="n">
-        <v>118.4290002129897</v>
+        <v>118.4290002129896</v>
       </c>
       <c r="H13" t="n">
-        <v>97.26911716285144</v>
+        <v>97.26911716285221</v>
       </c>
       <c r="I13" t="n">
-        <v>49.16424268872436</v>
+        <v>49.16424268872433</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95327340804138</v>
+        <v>41.95327340804135</v>
       </c>
       <c r="S13" t="n">
         <v>142.4031100299747</v>
@@ -1594,7 +1594,7 @@
         <v>178.0987918909218</v>
       </c>
       <c r="Y13" t="n">
-        <v>170.9737898539795</v>
+        <v>170.9737898539794</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>335.1229781653652</v>
       </c>
       <c r="C14" t="n">
-        <v>317.6620282728922</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>307.0721781225676</v>
@@ -1619,7 +1619,7 @@
         <v>359.2651822435961</v>
       </c>
       <c r="G14" t="n">
-        <v>363.3421963746779</v>
+        <v>180.1264940851871</v>
       </c>
       <c r="H14" t="n">
         <v>247.3178024630195</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.29092681326765</v>
+        <v>62.29092681326762</v>
       </c>
       <c r="T14" t="n">
-        <v>156.4442721866651</v>
+        <v>156.444272186665</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>203.3868151983338</v>
       </c>
       <c r="V14" t="n">
         <v>280.1413949720196</v>
       </c>
       <c r="W14" t="n">
-        <v>4.139189855247751</v>
+        <v>301.6301052192977</v>
       </c>
       <c r="X14" t="n">
         <v>322.1202371803537</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.221116683822</v>
+        <v>132.2211166838219</v>
       </c>
       <c r="C16" t="n">
         <v>119.6359576005125</v>
@@ -1771,19 +1771,19 @@
         <v>101.004609520097</v>
       </c>
       <c r="E16" t="n">
-        <v>98.82309914845385</v>
+        <v>98.82309914845382</v>
       </c>
       <c r="F16" t="n">
-        <v>97.81018452481592</v>
+        <v>97.8101845248159</v>
       </c>
       <c r="G16" t="n">
         <v>118.4290002129897</v>
       </c>
       <c r="H16" t="n">
-        <v>97.26911716285224</v>
+        <v>97.26911716285221</v>
       </c>
       <c r="I16" t="n">
-        <v>49.16424268872436</v>
+        <v>49.16424268872433</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95327340804138</v>
+        <v>41.95327340804135</v>
       </c>
       <c r="S16" t="n">
         <v>142.4031100299747</v>
@@ -1831,7 +1831,7 @@
         <v>178.0987918909218</v>
       </c>
       <c r="Y16" t="n">
-        <v>170.9737898539795</v>
+        <v>170.9737898539794</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>335.1229781653652</v>
       </c>
       <c r="C17" t="n">
-        <v>317.6620282728922</v>
+        <v>317.6620282728923</v>
       </c>
       <c r="D17" t="n">
         <v>307.0721781225676</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.29092681326762</v>
+        <v>62.29092681326765</v>
       </c>
       <c r="T17" t="n">
         <v>156.4442721866651</v>
@@ -1910,7 +1910,7 @@
         <v>322.1202371803537</v>
       </c>
       <c r="Y17" t="n">
-        <v>338.6270751579382</v>
+        <v>338.6270751579383</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>135.0162344510841</v>
       </c>
       <c r="H18" t="n">
-        <v>89.75879277990606</v>
+        <v>89.75879277990607</v>
       </c>
       <c r="I18" t="n">
-        <v>9.268697368111447</v>
+        <v>9.268697368111461</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>97.26911716285224</v>
       </c>
       <c r="I19" t="n">
-        <v>49.16424268872434</v>
+        <v>49.16424268872436</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95327340804137</v>
+        <v>41.95327340804138</v>
       </c>
       <c r="S19" t="n">
         <v>142.4031100299747</v>
@@ -2081,7 +2081,7 @@
         <v>335.1229781653652</v>
       </c>
       <c r="C20" t="n">
-        <v>317.662028272893</v>
+        <v>317.6620282728922</v>
       </c>
       <c r="D20" t="n">
         <v>307.0721781225676</v>
@@ -2318,7 +2318,7 @@
         <v>335.1229781653652</v>
       </c>
       <c r="C23" t="n">
-        <v>317.6620282728922</v>
+        <v>317.6620282728923</v>
       </c>
       <c r="D23" t="n">
         <v>307.0721781225676</v>
@@ -2384,7 +2384,7 @@
         <v>322.1202371803537</v>
       </c>
       <c r="Y23" t="n">
-        <v>338.6270751579382</v>
+        <v>338.6270751579383</v>
       </c>
     </row>
     <row r="24">
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072261</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0398637111051</v>
       </c>
       <c r="H28" t="n">
-        <v>144.8799806609676</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>89.5641369061567</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>190.01397352809</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.6090043895884</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2126048666352</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>191.9307899584036</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>82.20746951035666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9530598727933</v>
+        <v>410.9530598727932</v>
       </c>
       <c r="H29" t="n">
-        <v>294.9286659611349</v>
+        <v>294.9286659611348</v>
       </c>
       <c r="I29" t="n">
-        <v>42.78494226402603</v>
+        <v>42.78494226402597</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.901790311383</v>
+        <v>109.9017903113829</v>
       </c>
       <c r="T29" t="n">
-        <v>204.0551356847804</v>
+        <v>204.0551356847803</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9976786964492</v>
+        <v>250.9976786964491</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="30">
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>89.56413690615665</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.6090043895884</v>
       </c>
       <c r="U31" t="n">
         <v>286.2126048666352</v>
       </c>
       <c r="V31" t="n">
-        <v>172.5541072389188</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>142.4958450930017</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>380.5536879678605</v>
+        <v>380.5536879678604</v>
       </c>
       <c r="C32" t="n">
-        <v>363.0927380753875</v>
+        <v>363.0927380753873</v>
       </c>
       <c r="D32" t="n">
-        <v>352.5028879250629</v>
+        <v>352.5028879250627</v>
       </c>
       <c r="E32" t="n">
-        <v>379.7502163766417</v>
+        <v>379.7502163766416</v>
       </c>
       <c r="F32" t="n">
-        <v>404.6958920460914</v>
+        <v>404.6958920460912</v>
       </c>
       <c r="G32" t="n">
-        <v>408.7729061771732</v>
+        <v>408.7729061771731</v>
       </c>
       <c r="H32" t="n">
-        <v>292.7485122655148</v>
+        <v>292.7485122655146</v>
       </c>
       <c r="I32" t="n">
-        <v>40.60478856840596</v>
+        <v>40.60478856840584</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>107.7216366157629</v>
+        <v>107.7216366157628</v>
       </c>
       <c r="T32" t="n">
-        <v>201.8749819891603</v>
+        <v>201.8749819891602</v>
       </c>
       <c r="U32" t="n">
-        <v>248.8175250008291</v>
+        <v>248.817525000829</v>
       </c>
       <c r="V32" t="n">
-        <v>325.5721047745149</v>
+        <v>325.5721047745147</v>
       </c>
       <c r="W32" t="n">
-        <v>347.060815021793</v>
+        <v>347.0608150217928</v>
       </c>
       <c r="X32" t="n">
-        <v>367.550946982849</v>
+        <v>367.5509469828488</v>
       </c>
       <c r="Y32" t="n">
-        <v>384.0577849604335</v>
+        <v>384.0577849604334</v>
       </c>
     </row>
     <row r="33">
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.6518264863172</v>
+        <v>177.6518264863171</v>
       </c>
       <c r="C34" t="n">
-        <v>165.0666674030078</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>87.98376101138598</v>
+        <v>146.4353193225922</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>144.253808950949</v>
       </c>
       <c r="F34" t="n">
-        <v>143.2408943273112</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.859710015485</v>
+        <v>127.1049292404898</v>
       </c>
       <c r="H34" t="n">
-        <v>142.6998269653475</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>87.38398321053663</v>
+        <v>87.38398321053651</v>
       </c>
       <c r="S34" t="n">
-        <v>187.8338198324699</v>
+        <v>187.8338198324698</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4288506939682</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>284.032451171015</v>
       </c>
       <c r="V34" t="n">
-        <v>249.9574896282079</v>
+        <v>249.9574896282078</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>223.5295016934171</v>
+        <v>223.529501693417</v>
       </c>
       <c r="Y34" t="n">
-        <v>216.4044996564747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3266,22 @@
         <v>335.1229781653652</v>
       </c>
       <c r="C35" t="n">
-        <v>317.6620282728922</v>
+        <v>317.6620282728921</v>
       </c>
       <c r="D35" t="n">
-        <v>307.0721781225676</v>
+        <v>307.0721781225675</v>
       </c>
       <c r="E35" t="n">
         <v>334.3195065741464</v>
       </c>
       <c r="F35" t="n">
-        <v>359.2651822435961</v>
+        <v>359.265182243596</v>
       </c>
       <c r="G35" t="n">
         <v>363.3421963746779</v>
       </c>
       <c r="H35" t="n">
-        <v>247.3178024630195</v>
+        <v>247.3178024630194</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.29092681326763</v>
+        <v>62.29092681326756</v>
       </c>
       <c r="T35" t="n">
         <v>156.444272186665</v>
       </c>
       <c r="U35" t="n">
-        <v>203.3868151983338</v>
+        <v>203.3868151983337</v>
       </c>
       <c r="V35" t="n">
-        <v>280.1413949720196</v>
+        <v>280.1413949720195</v>
       </c>
       <c r="W35" t="n">
-        <v>301.6301052192977</v>
+        <v>301.6301052192976</v>
       </c>
       <c r="X35" t="n">
-        <v>322.1202371803537</v>
+        <v>322.1202371803536</v>
       </c>
       <c r="Y35" t="n">
         <v>338.6270751579382</v>
@@ -3424,25 +3424,25 @@
         <v>132.2211166838219</v>
       </c>
       <c r="C37" t="n">
-        <v>119.6359576005125</v>
+        <v>119.6359576005124</v>
       </c>
       <c r="D37" t="n">
-        <v>101.004609520097</v>
+        <v>101.0046095200969</v>
       </c>
       <c r="E37" t="n">
-        <v>98.82309914845384</v>
+        <v>98.82309914845376</v>
       </c>
       <c r="F37" t="n">
-        <v>97.81018452481591</v>
+        <v>97.81018452481584</v>
       </c>
       <c r="G37" t="n">
-        <v>118.4290002129891</v>
+        <v>118.4290002129896</v>
       </c>
       <c r="H37" t="n">
-        <v>97.26911716285223</v>
+        <v>97.26911716285279</v>
       </c>
       <c r="I37" t="n">
-        <v>49.16424268872434</v>
+        <v>49.16424268872427</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95327340804137</v>
+        <v>41.9532734080413</v>
       </c>
       <c r="S37" t="n">
-        <v>142.4031100299747</v>
+        <v>142.4031100299746</v>
       </c>
       <c r="T37" t="n">
-        <v>171.9981408914731</v>
+        <v>171.998140891473</v>
       </c>
       <c r="U37" t="n">
-        <v>238.6017413685199</v>
+        <v>238.6017413685198</v>
       </c>
       <c r="V37" t="n">
-        <v>204.5267798257127</v>
+        <v>204.5267798257126</v>
       </c>
       <c r="W37" t="n">
-        <v>238.9121348384757</v>
+        <v>238.9121348384756</v>
       </c>
       <c r="X37" t="n">
-        <v>178.0987918909218</v>
+        <v>178.0987918909217</v>
       </c>
       <c r="Y37" t="n">
         <v>170.9737898539794</v>
@@ -3503,16 +3503,16 @@
         <v>335.1229781653652</v>
       </c>
       <c r="C38" t="n">
-        <v>317.6620282728922</v>
+        <v>317.6620282728921</v>
       </c>
       <c r="D38" t="n">
-        <v>307.0721781225676</v>
+        <v>307.0721781225675</v>
       </c>
       <c r="E38" t="n">
         <v>334.3195065741464</v>
       </c>
       <c r="F38" t="n">
-        <v>359.2651822435961</v>
+        <v>359.265182243596</v>
       </c>
       <c r="G38" t="n">
         <v>363.3421963746779</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.29092681326765</v>
+        <v>62.29092681326757</v>
       </c>
       <c r="T38" t="n">
         <v>156.444272186665</v>
       </c>
       <c r="U38" t="n">
-        <v>203.3868151983338</v>
+        <v>203.3868151983337</v>
       </c>
       <c r="V38" t="n">
-        <v>280.1413949720196</v>
+        <v>280.1413949720195</v>
       </c>
       <c r="W38" t="n">
-        <v>301.6301052192977</v>
+        <v>301.6301052192976</v>
       </c>
       <c r="X38" t="n">
-        <v>322.1202371803537</v>
+        <v>322.1202371803536</v>
       </c>
       <c r="Y38" t="n">
         <v>338.6270751579382</v>
@@ -3600,7 +3600,7 @@
         <v>89.75879277990607</v>
       </c>
       <c r="I39" t="n">
-        <v>9.268697368111461</v>
+        <v>9.268697368111475</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>132.2211166838219</v>
       </c>
       <c r="C40" t="n">
-        <v>119.6359576005125</v>
+        <v>119.6359576005124</v>
       </c>
       <c r="D40" t="n">
-        <v>101.004609520097</v>
+        <v>101.0046095200969</v>
       </c>
       <c r="E40" t="n">
-        <v>98.82309914845384</v>
+        <v>98.82309914845376</v>
       </c>
       <c r="F40" t="n">
-        <v>97.81018452481591</v>
+        <v>97.81018452481584</v>
       </c>
       <c r="G40" t="n">
-        <v>118.4290002129897</v>
+        <v>118.4290002129896</v>
       </c>
       <c r="H40" t="n">
-        <v>97.26911716285223</v>
+        <v>97.26911716285215</v>
       </c>
       <c r="I40" t="n">
-        <v>49.16424268872434</v>
+        <v>49.16424268872429</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95327340804135</v>
+        <v>41.95327340804133</v>
       </c>
       <c r="S40" t="n">
-        <v>142.4031100299747</v>
+        <v>142.4031100299746</v>
       </c>
       <c r="T40" t="n">
-        <v>171.9981408914731</v>
+        <v>171.998140891473</v>
       </c>
       <c r="U40" t="n">
-        <v>238.6017413685199</v>
+        <v>238.6017413685198</v>
       </c>
       <c r="V40" t="n">
-        <v>204.5267798257127</v>
+        <v>204.5267798257126</v>
       </c>
       <c r="W40" t="n">
-        <v>238.9121348384757</v>
+        <v>238.9121348384756</v>
       </c>
       <c r="X40" t="n">
-        <v>178.0987918909218</v>
+        <v>178.0987918909217</v>
       </c>
       <c r="Y40" t="n">
         <v>170.9737898539794</v>
@@ -3740,22 +3740,22 @@
         <v>335.1229781653652</v>
       </c>
       <c r="C41" t="n">
-        <v>317.6620282728922</v>
+        <v>317.6620282728923</v>
       </c>
       <c r="D41" t="n">
-        <v>144.8215227181221</v>
+        <v>307.0721781225676</v>
       </c>
       <c r="E41" t="n">
-        <v>334.3195065741464</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>359.2651822435961</v>
       </c>
       <c r="G41" t="n">
-        <v>363.3421963746779</v>
+        <v>363.342196374678</v>
       </c>
       <c r="H41" t="n">
-        <v>247.3178024630195</v>
+        <v>80.75957847478151</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>62.29092681326765</v>
       </c>
       <c r="T41" t="n">
-        <v>156.444272186665</v>
+        <v>156.4442721866651</v>
       </c>
       <c r="U41" t="n">
         <v>203.3868151983338</v>
@@ -3806,7 +3806,7 @@
         <v>322.1202371803537</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>338.6270751579383</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.2211166838219</v>
+        <v>132.221116683822</v>
       </c>
       <c r="C43" t="n">
         <v>119.6359576005125</v>
@@ -3904,19 +3904,19 @@
         <v>101.004609520097</v>
       </c>
       <c r="E43" t="n">
-        <v>98.82309914845384</v>
+        <v>98.82309914845385</v>
       </c>
       <c r="F43" t="n">
-        <v>97.81018452481591</v>
+        <v>97.81018452481592</v>
       </c>
       <c r="G43" t="n">
         <v>118.4290002129897</v>
       </c>
       <c r="H43" t="n">
-        <v>97.26911716285211</v>
+        <v>97.26911716285224</v>
       </c>
       <c r="I43" t="n">
-        <v>49.16424268872434</v>
+        <v>49.16424268872436</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95327340804135</v>
+        <v>41.95327340804138</v>
       </c>
       <c r="S43" t="n">
         <v>142.4031100299747</v>
@@ -3964,7 +3964,7 @@
         <v>178.0987918909218</v>
       </c>
       <c r="Y43" t="n">
-        <v>170.9737898539794</v>
+        <v>170.9737898539795</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>335.1229781653652</v>
+        <v>151.907275875874</v>
       </c>
       <c r="C44" t="n">
-        <v>317.6620282728922</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>307.0721781225676</v>
       </c>
       <c r="E44" t="n">
-        <v>202.8048809475979</v>
+        <v>334.3195065741464</v>
       </c>
       <c r="F44" t="n">
         <v>359.2651822435961</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>62.29092681326765</v>
       </c>
       <c r="T44" t="n">
-        <v>156.444272186665</v>
+        <v>156.4442721866651</v>
       </c>
       <c r="U44" t="n">
         <v>203.3868151983338</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.2211166838219</v>
+        <v>132.221116683822</v>
       </c>
       <c r="C46" t="n">
         <v>119.6359576005125</v>
@@ -4141,19 +4141,19 @@
         <v>101.004609520097</v>
       </c>
       <c r="E46" t="n">
-        <v>98.82309914845382</v>
+        <v>98.82309914845385</v>
       </c>
       <c r="F46" t="n">
-        <v>97.8101845248159</v>
+        <v>97.81018452481592</v>
       </c>
       <c r="G46" t="n">
         <v>118.4290002129897</v>
       </c>
       <c r="H46" t="n">
-        <v>97.26911716285221</v>
+        <v>97.26911716285224</v>
       </c>
       <c r="I46" t="n">
-        <v>49.16424268872433</v>
+        <v>49.16424268872436</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95327340804135</v>
+        <v>41.95327340804138</v>
       </c>
       <c r="S46" t="n">
         <v>142.4031100299747</v>
@@ -4201,7 +4201,7 @@
         <v>178.0987918909218</v>
       </c>
       <c r="Y46" t="n">
-        <v>170.9737898539794</v>
+        <v>170.9737898539795</v>
       </c>
     </row>
   </sheetData>
@@ -4331,16 +4331,16 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L2" t="n">
-        <v>7.357368943631237</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M2" t="n">
-        <v>7.357368943631237</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N2" t="n">
-        <v>13.8896123982571</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O2" t="n">
         <v>20.69689768255142</v>
@@ -4349,13 +4349,13 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q2" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R2" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S2" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T2" t="n">
         <v>14.44108515774386</v>
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.38658590694733</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="C3" t="n">
-        <v>21.38658590694733</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="D3" t="n">
-        <v>21.38658590694733</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="E3" t="n">
-        <v>21.38658590694733</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="F3" t="n">
-        <v>14.44108515774386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="G3" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H3" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="I3" t="n">
         <v>0.5500836593369149</v>
@@ -4410,49 +4410,49 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M3" t="n">
-        <v>7.357368943631237</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N3" t="n">
-        <v>14.16465422792556</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O3" t="n">
         <v>20.69689768255142</v>
       </c>
       <c r="P3" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="Q3" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R3" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S3" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T3" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U3" t="n">
-        <v>21.38658590694733</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V3" t="n">
-        <v>21.38658590694733</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="W3" t="n">
-        <v>21.38658590694733</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="X3" t="n">
-        <v>21.38658590694733</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.38658590694733</v>
+        <v>6.667680719235332</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="C4" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="D4" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="E4" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="F4" t="n">
-        <v>13.6131814684388</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="G4" t="n">
-        <v>13.6131814684388</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H4" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I4" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J4" t="n">
         <v>0.5500836593369149</v>
@@ -4492,10 +4492,10 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L4" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M4" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N4" t="n">
         <v>20.69689768255142</v>
@@ -4507,10 +4507,10 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R4" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S4" t="n">
         <v>20.55868221764227</v>
@@ -4522,16 +4522,16 @@
         <v>20.55868221764227</v>
       </c>
       <c r="V4" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W4" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="X4" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F5" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G5" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H5" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I5" t="n">
         <v>0.5500836593369149</v>
@@ -4568,16 +4568,16 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K5" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L5" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M5" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N5" t="n">
-        <v>13.8896123982571</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O5" t="n">
         <v>20.69689768255142</v>
@@ -4589,28 +4589,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D6" t="n">
         <v>0.5500836593369149</v>
@@ -4647,16 +4647,16 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K6" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L6" t="n">
-        <v>13.8896123982571</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M6" t="n">
-        <v>13.8896123982571</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="N6" t="n">
-        <v>13.8896123982571</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="O6" t="n">
         <v>13.8896123982571</v>
@@ -4671,22 +4671,22 @@
         <v>27.50418296684575</v>
       </c>
       <c r="S6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T6" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U6" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V6" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W6" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X6" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="Y6" t="n">
         <v>7.495584408540386</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C7" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D7" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E7" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F7" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G7" t="n">
         <v>0.5500836593369149</v>
@@ -4729,7 +4729,7 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L7" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M7" t="n">
         <v>13.8896123982571</v>
@@ -4744,31 +4744,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T7" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U7" t="n">
-        <v>27.50418296684575</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="V7" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="W7" t="n">
-        <v>13.6131814684388</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="X7" t="n">
-        <v>13.6131814684388</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.6131814684388</v>
+        <v>6.667680719235332</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="C8" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="D8" t="n">
         <v>23.62703037176281</v>
@@ -4805,49 +4805,49 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K8" t="n">
-        <v>15.7618196405891</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="L8" t="n">
-        <v>30.9115297805728</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M8" t="n">
         <v>30.9115297805728</v>
       </c>
       <c r="N8" t="n">
-        <v>30.9115297805728</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O8" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P8" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="Q8" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="R8" t="n">
-        <v>54.54165161445989</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="S8" t="n">
-        <v>54.54165161445989</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="T8" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="U8" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="V8" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="W8" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="X8" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="Y8" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C9" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D9" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E9" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F9" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G9" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H9" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I9" t="n">
         <v>1.224219001210804</v>
@@ -4884,22 +4884,22 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K9" t="n">
+        <v>1.224219001210804</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.224219001210804</v>
+      </c>
+      <c r="M9" t="n">
         <v>16.37392914119451</v>
-      </c>
-      <c r="L9" t="n">
-        <v>16.37392914119451</v>
-      </c>
-      <c r="M9" t="n">
-        <v>31.52363928117821</v>
       </c>
       <c r="N9" t="n">
         <v>31.52363928117821</v>
       </c>
       <c r="O9" t="n">
-        <v>46.0612399205565</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="P9" t="n">
-        <v>46.0612399205565</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="Q9" t="n">
         <v>61.2109500605402</v>
@@ -4908,25 +4908,25 @@
         <v>61.2109500605402</v>
       </c>
       <c r="S9" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T9" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U9" t="n">
-        <v>47.59615086525642</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="V9" t="n">
-        <v>47.59615086525642</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="W9" t="n">
-        <v>47.59615086525642</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="X9" t="n">
-        <v>47.59615086525642</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="Y9" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C10" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D10" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E10" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F10" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G10" t="n">
         <v>1.224219001210804</v>
@@ -4969,7 +4969,7 @@
         <v>16.37392914119451</v>
       </c>
       <c r="M10" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N10" t="n">
         <v>46.0612399205565</v>
@@ -4981,31 +4981,31 @@
         <v>61.2109500605402</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="R10" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S10" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="T10" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U10" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="V10" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="W10" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="X10" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y10" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1513.189486277449</v>
+        <v>1855.237036942034</v>
       </c>
       <c r="C11" t="n">
-        <v>1192.318750648265</v>
+        <v>1534.36630131285</v>
       </c>
       <c r="D11" t="n">
-        <v>882.1448333527418</v>
+        <v>1224.192384017327</v>
       </c>
       <c r="E11" t="n">
-        <v>544.4483620657252</v>
+        <v>886.4959127303108</v>
       </c>
       <c r="F11" t="n">
-        <v>320.4790205951291</v>
+        <v>523.6017892519309</v>
       </c>
       <c r="G11" t="n">
-        <v>320.4790205951291</v>
+        <v>156.5894696815486</v>
       </c>
       <c r="H11" t="n">
-        <v>70.66305851127102</v>
+        <v>70.66305851127105</v>
       </c>
       <c r="I11" t="n">
-        <v>70.66305851127102</v>
+        <v>70.66305851127105</v>
       </c>
       <c r="J11" t="n">
-        <v>424.3149803189397</v>
+        <v>424.3149803189398</v>
       </c>
       <c r="K11" t="n">
-        <v>754.1883821074665</v>
+        <v>754.1883821074666</v>
       </c>
       <c r="L11" t="n">
         <v>1200.327268285585</v>
       </c>
       <c r="M11" t="n">
-        <v>1801.845006262277</v>
+        <v>1728.412178363265</v>
       </c>
       <c r="N11" t="n">
-        <v>2343.088690659622</v>
+        <v>2269.655862760611</v>
       </c>
       <c r="O11" t="n">
-        <v>2840.834492724648</v>
+        <v>2775.775237050396</v>
       </c>
       <c r="P11" t="n">
-        <v>3231.148018172068</v>
+        <v>3166.088762497816</v>
       </c>
       <c r="Q11" t="n">
-        <v>3476.0844741808</v>
+        <v>3411.025218506548</v>
       </c>
       <c r="R11" t="n">
-        <v>3533.152925563551</v>
+        <v>3533.152925563552</v>
       </c>
       <c r="S11" t="n">
-        <v>3470.232797469341</v>
+        <v>3470.232797469342</v>
       </c>
       <c r="T11" t="n">
-        <v>3312.208280109073</v>
+        <v>3312.208280109075</v>
       </c>
       <c r="U11" t="n">
-        <v>3106.767052636009</v>
+        <v>3106.76705263601</v>
       </c>
       <c r="V11" t="n">
-        <v>2823.795946603666</v>
+        <v>2823.795946603667</v>
       </c>
       <c r="W11" t="n">
-        <v>2519.119072644779</v>
+        <v>2519.119072644781</v>
       </c>
       <c r="X11" t="n">
-        <v>2193.745095694927</v>
+        <v>2193.745095694929</v>
       </c>
       <c r="Y11" t="n">
-        <v>1851.697545030343</v>
+        <v>2193.745095694929</v>
       </c>
     </row>
     <row r="12">
@@ -5103,28 +5103,28 @@
         <v>612.8428741151968</v>
       </c>
       <c r="E12" t="n">
-        <v>453.6054191097412</v>
+        <v>453.6054191097413</v>
       </c>
       <c r="F12" t="n">
-        <v>307.0708611366262</v>
+        <v>307.0708611366263</v>
       </c>
       <c r="G12" t="n">
         <v>170.6908263375514</v>
       </c>
       <c r="H12" t="n">
-        <v>80.02537908512097</v>
+        <v>80.025379085121</v>
       </c>
       <c r="I12" t="n">
-        <v>70.66305851127102</v>
+        <v>70.66305851127105</v>
       </c>
       <c r="J12" t="n">
         <v>162.7722157117022</v>
       </c>
       <c r="K12" t="n">
-        <v>414.7427345638268</v>
+        <v>398.3562610228704</v>
       </c>
       <c r="L12" t="n">
-        <v>777.8370975167751</v>
+        <v>761.4506239758186</v>
       </c>
       <c r="M12" t="n">
         <v>1220.907961200441</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.6895341258619</v>
+        <v>759.6895341258621</v>
       </c>
       <c r="C13" t="n">
-        <v>638.8451325091826</v>
+        <v>638.8451325091828</v>
       </c>
       <c r="D13" t="n">
-        <v>536.8202744080744</v>
+        <v>536.8202744080745</v>
       </c>
       <c r="E13" t="n">
-        <v>436.9989621369089</v>
+        <v>436.9989621369091</v>
       </c>
       <c r="F13" t="n">
-        <v>338.2007959502261</v>
+        <v>338.2007959502264</v>
       </c>
       <c r="G13" t="n">
-        <v>218.5755432098324</v>
+        <v>218.5755432098332</v>
       </c>
       <c r="H13" t="n">
         <v>120.3239097120027</v>
       </c>
       <c r="I13" t="n">
-        <v>70.66305851127102</v>
+        <v>70.66305851127105</v>
       </c>
       <c r="J13" t="n">
-        <v>161.9366625641267</v>
+        <v>161.9366625641268</v>
       </c>
       <c r="K13" t="n">
-        <v>411.4419422782595</v>
+        <v>411.4419422782594</v>
       </c>
       <c r="L13" t="n">
-        <v>773.0677298205089</v>
+        <v>773.0677298205085</v>
       </c>
       <c r="M13" t="n">
         <v>1162.178306841744</v>
       </c>
       <c r="N13" t="n">
-        <v>1548.592079587459</v>
+        <v>1548.592079587458</v>
       </c>
       <c r="O13" t="n">
         <v>1893.08962585099</v>
@@ -5227,22 +5227,22 @@
         <v>2108.510236502534</v>
       </c>
       <c r="T13" t="n">
-        <v>1934.774740652561</v>
+        <v>1934.77474065256</v>
       </c>
       <c r="U13" t="n">
         <v>1693.762880684359</v>
       </c>
       <c r="V13" t="n">
-        <v>1487.1701737897</v>
+        <v>1487.170173789699</v>
       </c>
       <c r="W13" t="n">
-        <v>1245.844785063967</v>
+        <v>1245.844785063966</v>
       </c>
       <c r="X13" t="n">
-        <v>1065.947015477176</v>
+        <v>1065.947015477177</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.2462176448739</v>
+        <v>893.2462176448742</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2019.126587855614</v>
+        <v>1513.18948627745</v>
       </c>
       <c r="C14" t="n">
-        <v>1698.25585222643</v>
+        <v>1513.18948627745</v>
       </c>
       <c r="D14" t="n">
-        <v>1388.081934930907</v>
+        <v>1203.015568981927</v>
       </c>
       <c r="E14" t="n">
-        <v>1050.385463643891</v>
+        <v>865.3190976949106</v>
       </c>
       <c r="F14" t="n">
-        <v>687.4913401655108</v>
+        <v>502.4249742165307</v>
       </c>
       <c r="G14" t="n">
         <v>320.4790205951292</v>
       </c>
       <c r="H14" t="n">
-        <v>70.66305851127102</v>
+        <v>70.66305851127105</v>
       </c>
       <c r="I14" t="n">
-        <v>70.66305851127102</v>
+        <v>70.66305851127105</v>
       </c>
       <c r="J14" t="n">
         <v>256.9093312985867</v>
@@ -5288,40 +5288,40 @@
         <v>1561.006529342912</v>
       </c>
       <c r="N14" t="n">
-        <v>2343.088690659622</v>
+        <v>2343.088690659623</v>
       </c>
       <c r="O14" t="n">
-        <v>2840.834492724648</v>
+        <v>2840.834492724649</v>
       </c>
       <c r="P14" t="n">
-        <v>3231.148018172068</v>
+        <v>3231.148018172069</v>
       </c>
       <c r="Q14" t="n">
-        <v>3476.0844741808</v>
+        <v>3476.084474180801</v>
       </c>
       <c r="R14" t="n">
-        <v>3533.152925563551</v>
+        <v>3533.152925563552</v>
       </c>
       <c r="S14" t="n">
-        <v>3470.232797469341</v>
+        <v>3470.232797469343</v>
       </c>
       <c r="T14" t="n">
-        <v>3312.208280109073</v>
+        <v>3312.208280109075</v>
       </c>
       <c r="U14" t="n">
-        <v>3312.208280109073</v>
+        <v>3106.76705263601</v>
       </c>
       <c r="V14" t="n">
-        <v>3029.23717407673</v>
+        <v>2823.795946603667</v>
       </c>
       <c r="W14" t="n">
-        <v>3025.056174222945</v>
+        <v>2519.119072644781</v>
       </c>
       <c r="X14" t="n">
-        <v>2699.682197273092</v>
+        <v>2193.745095694928</v>
       </c>
       <c r="Y14" t="n">
-        <v>2357.634646608508</v>
+        <v>1851.697545030344</v>
       </c>
     </row>
     <row r="15">
@@ -5340,43 +5340,43 @@
         <v>612.8428741151968</v>
       </c>
       <c r="E15" t="n">
-        <v>453.6054191097412</v>
+        <v>453.6054191097413</v>
       </c>
       <c r="F15" t="n">
-        <v>307.0708611366262</v>
+        <v>307.0708611366263</v>
       </c>
       <c r="G15" t="n">
         <v>170.6908263375514</v>
       </c>
       <c r="H15" t="n">
-        <v>80.02537908512097</v>
+        <v>80.025379085121</v>
       </c>
       <c r="I15" t="n">
-        <v>70.66305851127102</v>
+        <v>70.66305851127105</v>
       </c>
       <c r="J15" t="n">
-        <v>179.1586892526586</v>
+        <v>162.7722157117022</v>
       </c>
       <c r="K15" t="n">
-        <v>414.7427345638268</v>
+        <v>398.3562610228704</v>
       </c>
       <c r="L15" t="n">
-        <v>777.8370975167751</v>
+        <v>761.4506239758186</v>
       </c>
       <c r="M15" t="n">
-        <v>1220.907961200441</v>
+        <v>1204.521487659485</v>
       </c>
       <c r="N15" t="n">
-        <v>1690.114237163059</v>
+        <v>1673.727763622103</v>
       </c>
       <c r="O15" t="n">
-        <v>2097.126517583587</v>
+        <v>2080.74004404263</v>
       </c>
       <c r="P15" t="n">
-        <v>2404.456689214273</v>
+        <v>2388.070215673316</v>
       </c>
       <c r="Q15" t="n">
-        <v>2559.979573628731</v>
+        <v>2543.593100087774</v>
       </c>
       <c r="R15" t="n">
         <v>2559.979573628731</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.6895341258626</v>
+        <v>759.6895341258619</v>
       </c>
       <c r="C16" t="n">
-        <v>638.8451325091833</v>
+        <v>638.8451325091826</v>
       </c>
       <c r="D16" t="n">
-        <v>536.8202744080752</v>
+        <v>536.8202744080745</v>
       </c>
       <c r="E16" t="n">
-        <v>436.9989621369097</v>
+        <v>436.998962136909</v>
       </c>
       <c r="F16" t="n">
-        <v>338.200795950227</v>
+        <v>338.2007959502263</v>
       </c>
       <c r="G16" t="n">
-        <v>218.5755432098333</v>
+        <v>218.5755432098326</v>
       </c>
       <c r="H16" t="n">
         <v>120.3239097120027</v>
       </c>
       <c r="I16" t="n">
-        <v>70.66305851127102</v>
+        <v>70.66305851127105</v>
       </c>
       <c r="J16" t="n">
-        <v>161.9366625641267</v>
+        <v>161.9366625641269</v>
       </c>
       <c r="K16" t="n">
-        <v>411.4419422782596</v>
+        <v>411.4419422782598</v>
       </c>
       <c r="L16" t="n">
         <v>773.0677298205087</v>
@@ -5458,28 +5458,28 @@
         <v>2294.728805631843</v>
       </c>
       <c r="R16" t="n">
-        <v>2252.351761785337</v>
+        <v>2252.351761785336</v>
       </c>
       <c r="S16" t="n">
         <v>2108.510236502534</v>
       </c>
       <c r="T16" t="n">
-        <v>1934.774740652561</v>
+        <v>1934.77474065256</v>
       </c>
       <c r="U16" t="n">
-        <v>1693.762880684359</v>
+        <v>1693.762880684358</v>
       </c>
       <c r="V16" t="n">
-        <v>1487.1701737897</v>
+        <v>1487.170173789699</v>
       </c>
       <c r="W16" t="n">
-        <v>1245.844785063967</v>
+        <v>1245.844785063966</v>
       </c>
       <c r="X16" t="n">
-        <v>1065.947015477177</v>
+        <v>1065.947015477176</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.2462176448746</v>
+        <v>893.2462176448739</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1060.710710614874</v>
       </c>
       <c r="F17" t="n">
-        <v>697.8165871364937</v>
+        <v>697.8165871364936</v>
       </c>
       <c r="G17" t="n">
         <v>330.8042675661121</v>
@@ -5513,25 +5513,25 @@
         <v>80.98830548225398</v>
       </c>
       <c r="J17" t="n">
-        <v>434.6402272899228</v>
+        <v>267.2345782695697</v>
       </c>
       <c r="K17" t="n">
-        <v>764.5136290784496</v>
+        <v>611.8182350609127</v>
       </c>
       <c r="L17" t="n">
-        <v>1210.652515256568</v>
+        <v>1471.441723643977</v>
       </c>
       <c r="M17" t="n">
-        <v>1738.737425334248</v>
+        <v>1999.526633721657</v>
       </c>
       <c r="N17" t="n">
-        <v>2330.578477365697</v>
+        <v>2540.770318119003</v>
       </c>
       <c r="O17" t="n">
-        <v>2828.324279430723</v>
+        <v>3038.516120184028</v>
       </c>
       <c r="P17" t="n">
-        <v>3537.21852596791</v>
+        <v>3747.410366721216</v>
       </c>
       <c r="Q17" t="n">
         <v>3992.346822729948</v>
@@ -5586,25 +5586,25 @@
         <v>181.0160733085343</v>
       </c>
       <c r="H18" t="n">
-        <v>90.35062605610392</v>
+        <v>90.35062605610393</v>
       </c>
       <c r="I18" t="n">
         <v>80.98830548225398</v>
       </c>
       <c r="J18" t="n">
-        <v>173.0974626826852</v>
+        <v>173.0974626826851</v>
       </c>
       <c r="K18" t="n">
-        <v>408.6815079938535</v>
+        <v>425.0679815348096</v>
       </c>
       <c r="L18" t="n">
-        <v>771.7758709468019</v>
+        <v>788.1623444877579</v>
       </c>
       <c r="M18" t="n">
-        <v>1214.846734630468</v>
+        <v>1231.233208171424</v>
       </c>
       <c r="N18" t="n">
-        <v>1684.053010593086</v>
+        <v>1700.439484134042</v>
       </c>
       <c r="O18" t="n">
         <v>2107.45176455457</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>770.0147810968451</v>
+        <v>770.0147810968456</v>
       </c>
       <c r="C19" t="n">
-        <v>649.1703794801658</v>
+        <v>649.1703794801663</v>
       </c>
       <c r="D19" t="n">
-        <v>547.1455213790578</v>
+        <v>547.1455213790581</v>
       </c>
       <c r="E19" t="n">
-        <v>447.3242091078923</v>
+        <v>447.3242091078926</v>
       </c>
       <c r="F19" t="n">
-        <v>348.5260429212095</v>
+        <v>348.5260429212099</v>
       </c>
       <c r="G19" t="n">
-        <v>228.9007901808159</v>
+        <v>228.9007901808162</v>
       </c>
       <c r="H19" t="n">
         <v>130.6491566829856</v>
@@ -5677,7 +5677,7 @@
         <v>421.7671892492426</v>
       </c>
       <c r="L19" t="n">
-        <v>783.3929767914917</v>
+        <v>783.3929767914915</v>
       </c>
       <c r="M19" t="n">
         <v>1172.503553812727</v>
@@ -5704,19 +5704,19 @@
         <v>1945.099987623544</v>
       </c>
       <c r="U19" t="n">
-        <v>1704.088127655342</v>
+        <v>1704.088127655343</v>
       </c>
       <c r="V19" t="n">
-        <v>1497.495420760682</v>
+        <v>1497.495420760683</v>
       </c>
       <c r="W19" t="n">
-        <v>1256.170032034949</v>
+        <v>1256.17003203495</v>
       </c>
       <c r="X19" t="n">
         <v>1076.27226244816</v>
       </c>
       <c r="Y19" t="n">
-        <v>903.5714646158572</v>
+        <v>903.5714646158576</v>
       </c>
     </row>
     <row r="20">
@@ -5729,67 +5729,67 @@
         <v>2029.451834826598</v>
       </c>
       <c r="C20" t="n">
-        <v>1708.581099197413</v>
+        <v>1708.581099197414</v>
       </c>
       <c r="D20" t="n">
-        <v>1398.40718190189</v>
+        <v>1398.407181901891</v>
       </c>
       <c r="E20" t="n">
         <v>1060.710710614874</v>
       </c>
       <c r="F20" t="n">
-        <v>697.8165871364939</v>
+        <v>697.816587136494</v>
       </c>
       <c r="G20" t="n">
-        <v>330.8042675661122</v>
+        <v>330.8042675661121</v>
       </c>
       <c r="H20" t="n">
-        <v>80.98830548225401</v>
+        <v>80.98830548225398</v>
       </c>
       <c r="I20" t="n">
-        <v>80.98830548225401</v>
+        <v>80.98830548225398</v>
       </c>
       <c r="J20" t="n">
-        <v>267.2345782695697</v>
+        <v>434.6402272899227</v>
       </c>
       <c r="K20" t="n">
-        <v>597.1079800580965</v>
+        <v>1085.417587523903</v>
       </c>
       <c r="L20" t="n">
-        <v>1043.246866236215</v>
+        <v>1531.556473702021</v>
       </c>
       <c r="M20" t="n">
-        <v>1571.331776313895</v>
+        <v>2059.641383779701</v>
       </c>
       <c r="N20" t="n">
-        <v>2112.57546071124</v>
+        <v>2600.885068177046</v>
       </c>
       <c r="O20" t="n">
-        <v>2828.324279430724</v>
+        <v>3098.630870242072</v>
       </c>
       <c r="P20" t="n">
-        <v>3537.218525967912</v>
+        <v>3747.410366721216</v>
       </c>
       <c r="Q20" t="n">
-        <v>3992.34682272995</v>
+        <v>3992.346822729948</v>
       </c>
       <c r="R20" t="n">
-        <v>4049.4152741127</v>
+        <v>4049.415274112699</v>
       </c>
       <c r="S20" t="n">
-        <v>3986.495146018491</v>
+        <v>3986.495146018489</v>
       </c>
       <c r="T20" t="n">
-        <v>3828.470628658223</v>
+        <v>3828.470628658222</v>
       </c>
       <c r="U20" t="n">
-        <v>3623.029401185158</v>
+        <v>3623.029401185157</v>
       </c>
       <c r="V20" t="n">
-        <v>3340.058295152815</v>
+        <v>3340.058295152814</v>
       </c>
       <c r="W20" t="n">
-        <v>3035.381421193929</v>
+        <v>3035.381421193928</v>
       </c>
       <c r="X20" t="n">
         <v>2710.007444244076</v>
@@ -5823,10 +5823,10 @@
         <v>181.0160733085343</v>
       </c>
       <c r="H21" t="n">
-        <v>90.35062605610396</v>
+        <v>90.35062605610393</v>
       </c>
       <c r="I21" t="n">
-        <v>80.98830548225401</v>
+        <v>80.98830548225398</v>
       </c>
       <c r="J21" t="n">
         <v>173.0974626826851</v>
@@ -5841,13 +5841,13 @@
         <v>1214.846734630468</v>
       </c>
       <c r="N21" t="n">
-        <v>1684.053010593086</v>
+        <v>1700.439484134042</v>
       </c>
       <c r="O21" t="n">
-        <v>2091.065291013614</v>
+        <v>2107.45176455457</v>
       </c>
       <c r="P21" t="n">
-        <v>2398.3954626443</v>
+        <v>2414.781936185256</v>
       </c>
       <c r="Q21" t="n">
         <v>2570.304820599713</v>
@@ -5902,19 +5902,19 @@
         <v>228.9007901808162</v>
       </c>
       <c r="H22" t="n">
-        <v>130.6491566829857</v>
+        <v>130.6491566829856</v>
       </c>
       <c r="I22" t="n">
-        <v>80.98830548225401</v>
+        <v>80.98830548225398</v>
       </c>
       <c r="J22" t="n">
-        <v>172.2619095351098</v>
+        <v>172.2619095351097</v>
       </c>
       <c r="K22" t="n">
-        <v>421.7671892492426</v>
+        <v>421.7671892492425</v>
       </c>
       <c r="L22" t="n">
-        <v>783.3929767914917</v>
+        <v>783.3929767914916</v>
       </c>
       <c r="M22" t="n">
         <v>1172.503553812727</v>
@@ -5929,10 +5929,10 @@
         <v>2181.474184508894</v>
       </c>
       <c r="Q22" t="n">
-        <v>2305.054052602826</v>
+        <v>2305.054052602825</v>
       </c>
       <c r="R22" t="n">
-        <v>2262.67700875632</v>
+        <v>2262.677008756319</v>
       </c>
       <c r="S22" t="n">
         <v>2118.835483473517</v>
@@ -5963,73 +5963,73 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2029.451834826598</v>
+        <v>2029.451834826597</v>
       </c>
       <c r="C23" t="n">
-        <v>1708.581099197414</v>
+        <v>1708.581099197413</v>
       </c>
       <c r="D23" t="n">
-        <v>1398.407181901891</v>
+        <v>1398.40718190189</v>
       </c>
       <c r="E23" t="n">
         <v>1060.710710614874</v>
       </c>
       <c r="F23" t="n">
-        <v>697.8165871364947</v>
+        <v>697.816587136494</v>
       </c>
       <c r="G23" t="n">
-        <v>330.8042675661122</v>
+        <v>330.8042675661121</v>
       </c>
       <c r="H23" t="n">
-        <v>80.98830548225401</v>
+        <v>80.98830548225399</v>
       </c>
       <c r="I23" t="n">
-        <v>80.98830548225401</v>
+        <v>80.98830548225399</v>
       </c>
       <c r="J23" t="n">
-        <v>267.2345782695697</v>
+        <v>434.6402272899227</v>
       </c>
       <c r="K23" t="n">
-        <v>597.1079800580965</v>
+        <v>764.5136290784494</v>
       </c>
       <c r="L23" t="n">
-        <v>1043.246866236215</v>
+        <v>1210.652515256568</v>
       </c>
       <c r="M23" t="n">
-        <v>2016.350174471799</v>
+        <v>1738.737425334248</v>
       </c>
       <c r="N23" t="n">
-        <v>2557.593858869145</v>
+        <v>2712.954564899458</v>
       </c>
       <c r="O23" t="n">
-        <v>3357.096841273798</v>
+        <v>3210.700366964484</v>
       </c>
       <c r="P23" t="n">
-        <v>3747.410366721218</v>
+        <v>3601.013892411904</v>
       </c>
       <c r="Q23" t="n">
-        <v>3992.34682272995</v>
+        <v>3927.287567055696</v>
       </c>
       <c r="R23" t="n">
         <v>4049.4152741127</v>
       </c>
       <c r="S23" t="n">
-        <v>3986.495146018491</v>
+        <v>3986.49514601849</v>
       </c>
       <c r="T23" t="n">
-        <v>3828.470628658223</v>
+        <v>3828.470628658222</v>
       </c>
       <c r="U23" t="n">
-        <v>3623.029401185158</v>
+        <v>3623.029401185157</v>
       </c>
       <c r="V23" t="n">
-        <v>3340.058295152815</v>
+        <v>3340.058295152814</v>
       </c>
       <c r="W23" t="n">
-        <v>3035.381421193929</v>
+        <v>3035.381421193928</v>
       </c>
       <c r="X23" t="n">
-        <v>2710.007444244076</v>
+        <v>2710.007444244075</v>
       </c>
       <c r="Y23" t="n">
         <v>2367.959893579492</v>
@@ -6060,19 +6060,19 @@
         <v>181.0160733085343</v>
       </c>
       <c r="H24" t="n">
-        <v>90.35062605610396</v>
+        <v>90.35062605610395</v>
       </c>
       <c r="I24" t="n">
-        <v>80.98830548225401</v>
+        <v>80.98830548225399</v>
       </c>
       <c r="J24" t="n">
         <v>173.0974626826851</v>
       </c>
       <c r="K24" t="n">
-        <v>425.0679815348096</v>
+        <v>408.6815079938534</v>
       </c>
       <c r="L24" t="n">
-        <v>788.1623444877579</v>
+        <v>771.7758709468017</v>
       </c>
       <c r="M24" t="n">
         <v>1231.233208171424</v>
@@ -6142,7 +6142,7 @@
         <v>130.6491566829857</v>
       </c>
       <c r="I25" t="n">
-        <v>80.98830548225401</v>
+        <v>80.98830548225399</v>
       </c>
       <c r="J25" t="n">
         <v>172.2619095351097</v>
@@ -6157,7 +6157,7 @@
         <v>1172.503553812727</v>
       </c>
       <c r="N25" t="n">
-        <v>1558.917326558441</v>
+        <v>1558.917326558442</v>
       </c>
       <c r="O25" t="n">
         <v>1903.414872821973</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2375.842126944117</v>
+        <v>2375.842126944115</v>
       </c>
       <c r="C26" t="n">
-        <v>2006.879610003705</v>
+        <v>2006.879610003703</v>
       </c>
       <c r="D26" t="n">
-        <v>1648.613911396955</v>
+        <v>1648.613911396953</v>
       </c>
       <c r="E26" t="n">
-        <v>1262.825658798711</v>
+        <v>1262.82565879871</v>
       </c>
       <c r="F26" t="n">
-        <v>851.8397540091037</v>
+        <v>851.839754009102</v>
       </c>
       <c r="G26" t="n">
-        <v>436.7356531274936</v>
+        <v>436.7356531274926</v>
       </c>
       <c r="H26" t="n">
         <v>138.8279097324069</v>
       </c>
       <c r="I26" t="n">
-        <v>95.61079633440079</v>
+        <v>95.61079633440077</v>
       </c>
       <c r="J26" t="n">
         <v>281.8570691217164</v>
       </c>
       <c r="K26" t="n">
-        <v>932.6344293556964</v>
+        <v>611.7304709102432</v>
       </c>
       <c r="L26" t="n">
-        <v>1792.25791793876</v>
+        <v>1471.353959493307</v>
       </c>
       <c r="M26" t="n">
-        <v>2462.047877215342</v>
+        <v>1999.438869570988</v>
       </c>
       <c r="N26" t="n">
-        <v>3003.291561612687</v>
+        <v>2973.656009136198</v>
       </c>
       <c r="O26" t="n">
-        <v>3878.029543127831</v>
+        <v>3704.581407117115</v>
       </c>
       <c r="P26" t="n">
-        <v>4268.343068575251</v>
+        <v>4413.475653654303</v>
       </c>
       <c r="Q26" t="n">
-        <v>4723.471365337288</v>
+        <v>4658.412109663035</v>
       </c>
       <c r="R26" t="n">
-        <v>4780.539816720039</v>
+        <v>4780.539816720038</v>
       </c>
       <c r="S26" t="n">
-        <v>4669.527907314602</v>
+        <v>4669.5279073146</v>
       </c>
       <c r="T26" t="n">
-        <v>4463.411608643108</v>
+        <v>4463.411608643105</v>
       </c>
       <c r="U26" t="n">
-        <v>4209.878599858816</v>
+        <v>4209.878599858813</v>
       </c>
       <c r="V26" t="n">
-        <v>3878.815712515245</v>
+        <v>3878.815712515242</v>
       </c>
       <c r="W26" t="n">
-        <v>3526.04705724513</v>
+        <v>3526.047057245129</v>
       </c>
       <c r="X26" t="n">
-        <v>3152.581298984051</v>
+        <v>3152.581298984049</v>
       </c>
       <c r="Y26" t="n">
-        <v>2762.441967008239</v>
+        <v>2762.441967008237</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>104.9731169082507</v>
       </c>
       <c r="I27" t="n">
-        <v>95.61079633440079</v>
+        <v>95.61079633440077</v>
       </c>
       <c r="J27" t="n">
         <v>187.7199535348319</v>
       </c>
       <c r="K27" t="n">
-        <v>439.6904723869563</v>
+        <v>423.3039988460001</v>
       </c>
       <c r="L27" t="n">
-        <v>802.7848353399046</v>
+        <v>786.3983617989484</v>
       </c>
       <c r="M27" t="n">
-        <v>1245.855699023571</v>
+        <v>1229.469225482615</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.061974986189</v>
+        <v>1698.675501445233</v>
       </c>
       <c r="O27" t="n">
-        <v>2122.074255406716</v>
+        <v>2105.68778186576</v>
       </c>
       <c r="P27" t="n">
-        <v>2429.404427037402</v>
+        <v>2413.017953496446</v>
       </c>
       <c r="Q27" t="n">
-        <v>2584.92731145186</v>
+        <v>2568.540837910904</v>
       </c>
       <c r="R27" t="n">
         <v>2584.92731145186</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.8969809816119</v>
+        <v>580.1771068963221</v>
       </c>
       <c r="C28" t="n">
-        <v>538.960798053705</v>
+        <v>411.2409239684152</v>
       </c>
       <c r="D28" t="n">
-        <v>388.8441586413693</v>
+        <v>411.2409239684152</v>
       </c>
       <c r="E28" t="n">
-        <v>388.8441586413693</v>
+        <v>263.3278303860221</v>
       </c>
       <c r="F28" t="n">
-        <v>241.9542111434589</v>
+        <v>263.3278303860221</v>
       </c>
       <c r="G28" t="n">
-        <v>241.9542111434589</v>
+        <v>95.61079633440077</v>
       </c>
       <c r="H28" t="n">
-        <v>95.61079633440079</v>
+        <v>95.61079633440077</v>
       </c>
       <c r="I28" t="n">
-        <v>95.61079633440079</v>
+        <v>95.61079633440077</v>
       </c>
       <c r="J28" t="n">
         <v>139.7496455241223</v>
@@ -6391,7 +6391,7 @@
         <v>656.6112030542358</v>
       </c>
       <c r="M28" t="n">
-        <v>998.5870252123368</v>
+        <v>998.587025212337</v>
       </c>
       <c r="N28" t="n">
         <v>1337.866043094917</v>
@@ -6406,28 +6406,28 @@
         <v>1942.598504549899</v>
       </c>
       <c r="R28" t="n">
-        <v>1852.129679392166</v>
+        <v>1852.129679392165</v>
       </c>
       <c r="S28" t="n">
-        <v>1852.129679392166</v>
+        <v>1660.196372798135</v>
       </c>
       <c r="T28" t="n">
-        <v>1852.129679392166</v>
+        <v>1438.369095636934</v>
       </c>
       <c r="U28" t="n">
-        <v>1563.026038112736</v>
+        <v>1438.369095636934</v>
       </c>
       <c r="V28" t="n">
-        <v>1308.341549906849</v>
+        <v>1183.684607431047</v>
       </c>
       <c r="W28" t="n">
-        <v>1018.924379869889</v>
+        <v>989.8151226245792</v>
       </c>
       <c r="X28" t="n">
-        <v>790.9348289718712</v>
+        <v>761.8255717265619</v>
       </c>
       <c r="Y28" t="n">
-        <v>707.8969809816119</v>
+        <v>761.8255717265619</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2375.842126944116</v>
+        <v>2375.842126944115</v>
       </c>
       <c r="C29" t="n">
-        <v>2006.879610003705</v>
+        <v>2006.879610003703</v>
       </c>
       <c r="D29" t="n">
-        <v>1648.613911396954</v>
+        <v>1648.613911396953</v>
       </c>
       <c r="E29" t="n">
-        <v>1262.82565879871</v>
+        <v>1262.825658798709</v>
       </c>
       <c r="F29" t="n">
-        <v>851.8397540091023</v>
+        <v>851.8397540091014</v>
       </c>
       <c r="G29" t="n">
-        <v>436.7356531274929</v>
+        <v>436.7356531274925</v>
       </c>
       <c r="H29" t="n">
-        <v>138.8279097324069</v>
+        <v>138.8279097324068</v>
       </c>
       <c r="I29" t="n">
-        <v>95.61079633440079</v>
+        <v>95.61079633440077</v>
       </c>
       <c r="J29" t="n">
         <v>449.2627181420695</v>
       </c>
       <c r="K29" t="n">
-        <v>779.1361199305964</v>
+        <v>1100.040078376049</v>
       </c>
       <c r="L29" t="n">
-        <v>1578.095878341063</v>
+        <v>1959.663566959113</v>
       </c>
       <c r="M29" t="n">
-        <v>2551.199186576648</v>
+        <v>2487.748477036794</v>
       </c>
       <c r="N29" t="n">
-        <v>3525.416326141858</v>
+        <v>3028.992161434139</v>
       </c>
       <c r="O29" t="n">
-        <v>4023.162128206884</v>
+        <v>3526.737963499165</v>
       </c>
       <c r="P29" t="n">
-        <v>4413.475653654304</v>
+        <v>4235.632210036352</v>
       </c>
       <c r="Q29" t="n">
-        <v>4658.412109663036</v>
+        <v>4658.412109663035</v>
       </c>
       <c r="R29" t="n">
-        <v>4780.539816720039</v>
+        <v>4780.539816720038</v>
       </c>
       <c r="S29" t="n">
-        <v>4669.527907314602</v>
+        <v>4669.527907314601</v>
       </c>
       <c r="T29" t="n">
-        <v>4463.411608643107</v>
+        <v>4463.411608643106</v>
       </c>
       <c r="U29" t="n">
-        <v>4209.878599858815</v>
+        <v>4209.878599858814</v>
       </c>
       <c r="V29" t="n">
-        <v>3878.815712515244</v>
+        <v>3878.815712515243</v>
       </c>
       <c r="W29" t="n">
-        <v>3526.04705724513</v>
+        <v>3526.047057245129</v>
       </c>
       <c r="X29" t="n">
-        <v>3152.58129898405</v>
+        <v>3152.581298984049</v>
       </c>
       <c r="Y29" t="n">
-        <v>2762.441967008238</v>
+        <v>2762.441967008237</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>104.9731169082507</v>
       </c>
       <c r="I30" t="n">
-        <v>95.61079633440079</v>
+        <v>95.61079633440077</v>
       </c>
       <c r="J30" t="n">
         <v>187.7199535348319</v>
@@ -6546,10 +6546,10 @@
         <v>423.3039988460001</v>
       </c>
       <c r="L30" t="n">
-        <v>802.7848353399046</v>
+        <v>786.3983617989484</v>
       </c>
       <c r="M30" t="n">
-        <v>1245.855699023571</v>
+        <v>1229.469225482615</v>
       </c>
       <c r="N30" t="n">
         <v>1715.061974986189</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>559.3500203426113</v>
+        <v>243.5238899167938</v>
       </c>
       <c r="C31" t="n">
-        <v>390.4138374147044</v>
+        <v>243.5238899167938</v>
       </c>
       <c r="D31" t="n">
-        <v>390.4138374147044</v>
+        <v>243.5238899167938</v>
       </c>
       <c r="E31" t="n">
-        <v>242.5007438323111</v>
+        <v>95.61079633440072</v>
       </c>
       <c r="F31" t="n">
-        <v>95.61079633440079</v>
+        <v>95.61079633440077</v>
       </c>
       <c r="G31" t="n">
-        <v>95.61079633440079</v>
+        <v>95.61079633440077</v>
       </c>
       <c r="H31" t="n">
-        <v>95.61079633440079</v>
+        <v>95.61079633440077</v>
       </c>
       <c r="I31" t="n">
-        <v>95.61079633440079</v>
+        <v>95.61079633440077</v>
       </c>
       <c r="J31" t="n">
-        <v>139.7496455241221</v>
+        <v>139.7496455241224</v>
       </c>
       <c r="K31" t="n">
-        <v>342.1201703751208</v>
+        <v>342.1201703751211</v>
       </c>
       <c r="L31" t="n">
-        <v>656.6112030542357</v>
+        <v>656.6112030542361</v>
       </c>
       <c r="M31" t="n">
-        <v>998.5870252123367</v>
+        <v>998.587025212337</v>
       </c>
       <c r="N31" t="n">
         <v>1337.866043094917</v>
       </c>
       <c r="O31" t="n">
-        <v>1635.228834495314</v>
+        <v>1635.228834495315</v>
       </c>
       <c r="P31" t="n">
         <v>1866.153391319102</v>
@@ -6643,28 +6643,28 @@
         <v>1942.598504549899</v>
       </c>
       <c r="R31" t="n">
-        <v>1942.598504549899</v>
+        <v>1852.129679392166</v>
       </c>
       <c r="S31" t="n">
-        <v>1942.598504549899</v>
+        <v>1852.129679392166</v>
       </c>
       <c r="T31" t="n">
-        <v>1942.598504549899</v>
+        <v>1630.302402230965</v>
       </c>
       <c r="U31" t="n">
-        <v>1653.494863270469</v>
+        <v>1341.198760951536</v>
       </c>
       <c r="V31" t="n">
-        <v>1479.197785251359</v>
+        <v>1086.514272745649</v>
       </c>
       <c r="W31" t="n">
-        <v>1189.780615214398</v>
+        <v>797.0971027086886</v>
       </c>
       <c r="X31" t="n">
-        <v>961.7910643163812</v>
+        <v>569.1075518106712</v>
       </c>
       <c r="Y31" t="n">
-        <v>740.998485172851</v>
+        <v>425.1723547470334</v>
       </c>
     </row>
     <row r="32">
@@ -6680,46 +6680,46 @@
         <v>1992.992421961103</v>
       </c>
       <c r="D32" t="n">
-        <v>1636.928898804473</v>
+        <v>1636.928898804474</v>
       </c>
       <c r="E32" t="n">
-        <v>1253.34282165635</v>
+        <v>1253.342821656351</v>
       </c>
       <c r="F32" t="n">
-        <v>844.5590923168639</v>
+        <v>844.5590923168647</v>
       </c>
       <c r="G32" t="n">
-        <v>431.6571668853758</v>
+        <v>431.6571668853767</v>
       </c>
       <c r="H32" t="n">
-        <v>135.9515989404117</v>
+        <v>135.9515989404116</v>
       </c>
       <c r="I32" t="n">
         <v>94.93666099252688</v>
       </c>
       <c r="J32" t="n">
-        <v>448.5885828001956</v>
+        <v>281.1829337798426</v>
       </c>
       <c r="K32" t="n">
-        <v>1099.365943034175</v>
+        <v>611.0563355683694</v>
       </c>
       <c r="L32" t="n">
-        <v>1545.504829212294</v>
+        <v>1057.195221746488</v>
       </c>
       <c r="M32" t="n">
-        <v>2073.589739289974</v>
+        <v>1676.786933864015</v>
       </c>
       <c r="N32" t="n">
-        <v>2614.83342368732</v>
+        <v>2651.004073429225</v>
       </c>
       <c r="O32" t="n">
-        <v>3460.682799270116</v>
+        <v>3525.742054944368</v>
       </c>
       <c r="P32" t="n">
-        <v>4169.577045807304</v>
+        <v>4234.636301481556</v>
       </c>
       <c r="Q32" t="n">
-        <v>4624.705342569341</v>
+        <v>4689.764598243593</v>
       </c>
       <c r="R32" t="n">
         <v>4746.833049626344</v>
@@ -6728,7 +6728,7 @@
         <v>4638.023315671028</v>
       </c>
       <c r="T32" t="n">
-        <v>4434.109192449656</v>
+        <v>4434.109192449655</v>
       </c>
       <c r="U32" t="n">
         <v>4182.778359115485</v>
@@ -6792,7 +6792,7 @@
         <v>1698.001366103359</v>
       </c>
       <c r="O33" t="n">
-        <v>2121.400120064843</v>
+        <v>2105.013646523887</v>
       </c>
       <c r="P33" t="n">
         <v>2428.730291695529</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>804.8870243486252</v>
+        <v>516.950860501649</v>
       </c>
       <c r="C34" t="n">
-        <v>638.1530168708396</v>
+        <v>516.950860501649</v>
       </c>
       <c r="D34" t="n">
-        <v>549.2805310007528</v>
+        <v>369.0363965394347</v>
       </c>
       <c r="E34" t="n">
-        <v>549.2805310007528</v>
+        <v>223.325478407163</v>
       </c>
       <c r="F34" t="n">
-        <v>404.5927589529638</v>
+        <v>223.325478407163</v>
       </c>
       <c r="G34" t="n">
-        <v>239.0779003514638</v>
+        <v>94.93666099252688</v>
       </c>
       <c r="H34" t="n">
         <v>94.93666099252688</v>
@@ -6856,13 +6856,13 @@
         <v>94.93666099252688</v>
       </c>
       <c r="J34" t="n">
-        <v>141.2338623409123</v>
+        <v>141.2338623409124</v>
       </c>
       <c r="K34" t="n">
-        <v>345.7627393505749</v>
+        <v>345.7627393505751</v>
       </c>
       <c r="L34" t="n">
-        <v>662.4121241883536</v>
+        <v>662.4121241883541</v>
       </c>
       <c r="M34" t="n">
         <v>1006.546298505119</v>
@@ -6871,37 +6871,37 @@
         <v>1347.983668546363</v>
       </c>
       <c r="O34" t="n">
-        <v>1647.504812105424</v>
+        <v>1647.504812105425</v>
       </c>
       <c r="P34" t="n">
-        <v>1880.587721087875</v>
+        <v>1880.587721087876</v>
       </c>
       <c r="Q34" t="n">
-        <v>1959.191186477336</v>
+        <v>1959.191186477337</v>
       </c>
       <c r="R34" t="n">
-        <v>1870.924536769723</v>
+        <v>1870.924536769724</v>
       </c>
       <c r="S34" t="n">
-        <v>1681.193405625814</v>
+        <v>1681.193405625816</v>
       </c>
       <c r="T34" t="n">
-        <v>1681.193405625814</v>
+        <v>1461.568303914737</v>
       </c>
       <c r="U34" t="n">
-        <v>1681.193405625814</v>
+        <v>1174.666838085429</v>
       </c>
       <c r="V34" t="n">
-        <v>1428.711092870049</v>
+        <v>922.1845253296632</v>
       </c>
       <c r="W34" t="n">
-        <v>1428.711092870049</v>
+        <v>922.1845253296632</v>
       </c>
       <c r="X34" t="n">
-        <v>1202.923717422153</v>
+        <v>696.3971498817673</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.3333137287436</v>
+        <v>696.3971498817673</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2029.451834826598</v>
+        <v>2029.451834826597</v>
       </c>
       <c r="C35" t="n">
-        <v>1708.581099197414</v>
+        <v>1708.581099197413</v>
       </c>
       <c r="D35" t="n">
-        <v>1398.407181901891</v>
+        <v>1398.40718190189</v>
       </c>
       <c r="E35" t="n">
         <v>1060.710710614874</v>
       </c>
       <c r="F35" t="n">
-        <v>697.8165871364945</v>
+        <v>697.8165871364936</v>
       </c>
       <c r="G35" t="n">
-        <v>330.8042675661121</v>
+        <v>330.804267566112</v>
       </c>
       <c r="H35" t="n">
-        <v>80.98830548225401</v>
+        <v>80.98830548225398</v>
       </c>
       <c r="I35" t="n">
-        <v>80.98830548225401</v>
+        <v>80.98830548225398</v>
       </c>
       <c r="J35" t="n">
-        <v>267.2345782695697</v>
+        <v>434.6402272899227</v>
       </c>
       <c r="K35" t="n">
-        <v>918.0119385035496</v>
+        <v>764.5136290784494</v>
       </c>
       <c r="L35" t="n">
-        <v>1777.635427086614</v>
+        <v>1210.652515256568</v>
       </c>
       <c r="M35" t="n">
-        <v>2318.107354811425</v>
+        <v>1738.737425334248</v>
       </c>
       <c r="N35" t="n">
-        <v>2859.351039208771</v>
+        <v>2540.770318119002</v>
       </c>
       <c r="O35" t="n">
-        <v>3357.096841273797</v>
+        <v>3038.516120184028</v>
       </c>
       <c r="P35" t="n">
-        <v>3747.410366721217</v>
+        <v>3747.410366721216</v>
       </c>
       <c r="Q35" t="n">
-        <v>3992.346822729949</v>
+        <v>3992.346822729948</v>
       </c>
       <c r="R35" t="n">
-        <v>4049.4152741127</v>
+        <v>4049.415274112699</v>
       </c>
       <c r="S35" t="n">
-        <v>3986.49514601849</v>
+        <v>3986.495146018489</v>
       </c>
       <c r="T35" t="n">
-        <v>3828.470628658222</v>
+        <v>3828.470628658221</v>
       </c>
       <c r="U35" t="n">
-        <v>3623.029401185158</v>
+        <v>3623.029401185157</v>
       </c>
       <c r="V35" t="n">
-        <v>3340.058295152815</v>
+        <v>3340.058295152814</v>
       </c>
       <c r="W35" t="n">
-        <v>3035.381421193929</v>
+        <v>3035.381421193927</v>
       </c>
       <c r="X35" t="n">
-        <v>2710.007444244076</v>
+        <v>2710.007444244075</v>
       </c>
       <c r="Y35" t="n">
-        <v>2367.959893579492</v>
+        <v>2367.959893579491</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>181.0160733085343</v>
       </c>
       <c r="H36" t="n">
-        <v>90.35062605610396</v>
+        <v>90.35062605610393</v>
       </c>
       <c r="I36" t="n">
-        <v>80.98830548225401</v>
+        <v>80.98830548225398</v>
       </c>
       <c r="J36" t="n">
         <v>173.0974626826851</v>
@@ -7023,7 +7023,7 @@
         <v>771.7758709468017</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.233208171424</v>
+        <v>1214.846734630468</v>
       </c>
       <c r="N36" t="n">
         <v>1700.439484134042</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>770.0147810968449</v>
+        <v>770.0147810968457</v>
       </c>
       <c r="C37" t="n">
-        <v>649.1703794801656</v>
+        <v>649.1703794801665</v>
       </c>
       <c r="D37" t="n">
-        <v>547.1455213790575</v>
+        <v>547.1455213790584</v>
       </c>
       <c r="E37" t="n">
-        <v>447.324209107892</v>
+        <v>447.324209107893</v>
       </c>
       <c r="F37" t="n">
-        <v>348.5260429212093</v>
+        <v>348.5260429212103</v>
       </c>
       <c r="G37" t="n">
-        <v>228.9007901808162</v>
+        <v>228.9007901808167</v>
       </c>
       <c r="H37" t="n">
         <v>130.6491566829856</v>
       </c>
       <c r="I37" t="n">
-        <v>80.98830548225401</v>
+        <v>80.98830548225398</v>
       </c>
       <c r="J37" t="n">
-        <v>172.26190953511</v>
+        <v>172.2619095351098</v>
       </c>
       <c r="K37" t="n">
-        <v>421.7671892492428</v>
+        <v>421.7671892492427</v>
       </c>
       <c r="L37" t="n">
-        <v>783.3929767914918</v>
+        <v>783.3929767914916</v>
       </c>
       <c r="M37" t="n">
         <v>1172.503553812727</v>
@@ -7111,7 +7111,7 @@
         <v>1903.414872821973</v>
       </c>
       <c r="P37" t="n">
-        <v>2181.474184508894</v>
+        <v>2181.474184508895</v>
       </c>
       <c r="Q37" t="n">
         <v>2305.054052602826</v>
@@ -7135,10 +7135,10 @@
         <v>1256.17003203495</v>
       </c>
       <c r="X37" t="n">
-        <v>1076.272262448159</v>
+        <v>1076.27226244816</v>
       </c>
       <c r="Y37" t="n">
-        <v>903.5714646158569</v>
+        <v>903.5714646158577</v>
       </c>
     </row>
     <row r="38">
@@ -7148,61 +7148,61 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2029.451834826597</v>
+        <v>2029.451834826596</v>
       </c>
       <c r="C38" t="n">
-        <v>1708.581099197413</v>
+        <v>1708.581099197412</v>
       </c>
       <c r="D38" t="n">
         <v>1398.40718190189</v>
       </c>
       <c r="E38" t="n">
-        <v>1060.710710614874</v>
+        <v>1060.710710614873</v>
       </c>
       <c r="F38" t="n">
-        <v>697.8165871364936</v>
+        <v>697.8165871364931</v>
       </c>
       <c r="G38" t="n">
-        <v>330.8042675661121</v>
+        <v>330.804267566112</v>
       </c>
       <c r="H38" t="n">
-        <v>80.98830548225398</v>
+        <v>80.98830548225396</v>
       </c>
       <c r="I38" t="n">
-        <v>80.98830548225398</v>
+        <v>80.98830548225396</v>
       </c>
       <c r="J38" t="n">
-        <v>267.2345782695697</v>
+        <v>267.2345782695696</v>
       </c>
       <c r="K38" t="n">
-        <v>597.1079800580965</v>
+        <v>597.1079800580962</v>
       </c>
       <c r="L38" t="n">
-        <v>1043.246866236215</v>
+        <v>1043.246866236214</v>
       </c>
       <c r="M38" t="n">
-        <v>1571.331776313895</v>
+        <v>1885.13389964356</v>
       </c>
       <c r="N38" t="n">
-        <v>2545.548915879105</v>
+        <v>2859.35103920877</v>
       </c>
       <c r="O38" t="n">
-        <v>3292.037585599543</v>
+        <v>3357.096841273795</v>
       </c>
       <c r="P38" t="n">
-        <v>3682.351111046964</v>
+        <v>3747.410366721215</v>
       </c>
       <c r="Q38" t="n">
-        <v>3927.287567055695</v>
+        <v>3992.346822729947</v>
       </c>
       <c r="R38" t="n">
-        <v>4049.415274112699</v>
+        <v>4049.415274112698</v>
       </c>
       <c r="S38" t="n">
-        <v>3986.495146018489</v>
+        <v>3986.495146018488</v>
       </c>
       <c r="T38" t="n">
-        <v>3828.470628658221</v>
+        <v>3828.47062865822</v>
       </c>
       <c r="U38" t="n">
         <v>3623.029401185157</v>
@@ -7211,7 +7211,7 @@
         <v>3340.058295152814</v>
       </c>
       <c r="W38" t="n">
-        <v>3035.381421193928</v>
+        <v>3035.381421193927</v>
       </c>
       <c r="X38" t="n">
         <v>2710.007444244075</v>
@@ -7248,22 +7248,22 @@
         <v>90.35062605610393</v>
       </c>
       <c r="I39" t="n">
-        <v>80.98830548225398</v>
+        <v>80.98830548225396</v>
       </c>
       <c r="J39" t="n">
         <v>173.0974626826851</v>
       </c>
       <c r="K39" t="n">
-        <v>408.6815079938534</v>
+        <v>408.6815079938532</v>
       </c>
       <c r="L39" t="n">
-        <v>788.1623444877579</v>
+        <v>771.7758709468013</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.233208171424</v>
+        <v>1214.846734630467</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.439484134042</v>
+        <v>1684.053010593085</v>
       </c>
       <c r="O39" t="n">
         <v>2107.45176455457</v>
@@ -7272,10 +7272,10 @@
         <v>2414.781936185256</v>
       </c>
       <c r="Q39" t="n">
-        <v>2570.304820599713</v>
+        <v>2570.304820599714</v>
       </c>
       <c r="R39" t="n">
-        <v>2570.304820599713</v>
+        <v>2570.304820599714</v>
       </c>
       <c r="S39" t="n">
         <v>2440.552380736967</v>
@@ -7309,28 +7309,28 @@
         <v>770.0147810968449</v>
       </c>
       <c r="C40" t="n">
-        <v>649.1703794801656</v>
+        <v>649.1703794801657</v>
       </c>
       <c r="D40" t="n">
-        <v>547.1455213790575</v>
+        <v>547.1455213790576</v>
       </c>
       <c r="E40" t="n">
-        <v>447.324209107892</v>
+        <v>447.3242091078922</v>
       </c>
       <c r="F40" t="n">
-        <v>348.5260429212093</v>
+        <v>348.526042921209</v>
       </c>
       <c r="G40" t="n">
-        <v>228.9007901808156</v>
+        <v>228.9007901808154</v>
       </c>
       <c r="H40" t="n">
-        <v>130.6491566829852</v>
+        <v>130.6491566829856</v>
       </c>
       <c r="I40" t="n">
-        <v>80.98830548225398</v>
+        <v>80.98830548225396</v>
       </c>
       <c r="J40" t="n">
-        <v>172.2619095351097</v>
+        <v>172.2619095351098</v>
       </c>
       <c r="K40" t="n">
         <v>421.7671892492426</v>
@@ -7348,22 +7348,22 @@
         <v>1903.414872821973</v>
       </c>
       <c r="P40" t="n">
-        <v>2181.474184508895</v>
+        <v>2181.474184508894</v>
       </c>
       <c r="Q40" t="n">
-        <v>2305.054052602826</v>
+        <v>2305.054052602825</v>
       </c>
       <c r="R40" t="n">
-        <v>2262.67700875632</v>
+        <v>2262.677008756319</v>
       </c>
       <c r="S40" t="n">
-        <v>2118.835483473517</v>
+        <v>2118.835483473516</v>
       </c>
       <c r="T40" t="n">
-        <v>1945.099987623544</v>
+        <v>1945.099987623543</v>
       </c>
       <c r="U40" t="n">
-        <v>1704.088127655342</v>
+        <v>1704.088127655341</v>
       </c>
       <c r="V40" t="n">
         <v>1497.495420760682</v>
@@ -7385,49 +7385,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1855.237036942033</v>
+        <v>1513.189486277449</v>
       </c>
       <c r="C41" t="n">
-        <v>1534.366301312849</v>
+        <v>1192.318750648265</v>
       </c>
       <c r="D41" t="n">
-        <v>1388.081934930908</v>
+        <v>882.1448333527414</v>
       </c>
       <c r="E41" t="n">
-        <v>1050.385463643891</v>
+        <v>882.1448333527414</v>
       </c>
       <c r="F41" t="n">
-        <v>687.4913401655114</v>
+        <v>519.2507098743615</v>
       </c>
       <c r="G41" t="n">
-        <v>320.4790205951292</v>
+        <v>152.2383903039796</v>
       </c>
       <c r="H41" t="n">
-        <v>70.66305851127103</v>
+        <v>70.66305851127102</v>
       </c>
       <c r="I41" t="n">
-        <v>70.66305851127103</v>
+        <v>70.66305851127102</v>
       </c>
       <c r="J41" t="n">
         <v>256.9093312985867</v>
       </c>
       <c r="K41" t="n">
-        <v>827.6212100064788</v>
+        <v>586.7827330871135</v>
       </c>
       <c r="L41" t="n">
-        <v>1273.760096184597</v>
+        <v>1032.921619265232</v>
       </c>
       <c r="M41" t="n">
-        <v>1801.845006262277</v>
+        <v>1561.006529342912</v>
       </c>
       <c r="N41" t="n">
-        <v>2343.088690659623</v>
+        <v>2343.088690659622</v>
       </c>
       <c r="O41" t="n">
         <v>2840.834492724648</v>
       </c>
       <c r="P41" t="n">
-        <v>3231.148018172069</v>
+        <v>3231.148018172068</v>
       </c>
       <c r="Q41" t="n">
         <v>3476.0844741808</v>
@@ -7454,7 +7454,7 @@
         <v>2193.745095694927</v>
       </c>
       <c r="Y41" t="n">
-        <v>2193.745095694927</v>
+        <v>1851.697545030343</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>170.6908263375514</v>
       </c>
       <c r="H42" t="n">
-        <v>80.02537908512099</v>
+        <v>80.02537908512097</v>
       </c>
       <c r="I42" t="n">
-        <v>70.66305851127103</v>
+        <v>70.66305851127102</v>
       </c>
       <c r="J42" t="n">
         <v>162.7722157117022</v>
@@ -7494,22 +7494,22 @@
         <v>398.3562610228704</v>
       </c>
       <c r="L42" t="n">
-        <v>777.8370975167751</v>
+        <v>761.4506239758186</v>
       </c>
       <c r="M42" t="n">
-        <v>1220.907961200441</v>
+        <v>1204.521487659485</v>
       </c>
       <c r="N42" t="n">
-        <v>1690.114237163059</v>
+        <v>1673.727763622103</v>
       </c>
       <c r="O42" t="n">
-        <v>2097.126517583587</v>
+        <v>2080.74004404263</v>
       </c>
       <c r="P42" t="n">
-        <v>2404.456689214273</v>
+        <v>2388.070215673316</v>
       </c>
       <c r="Q42" t="n">
-        <v>2559.979573628731</v>
+        <v>2543.593100087774</v>
       </c>
       <c r="R42" t="n">
         <v>2559.979573628731</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>759.6895341258628</v>
+        <v>759.6895341258626</v>
       </c>
       <c r="C43" t="n">
-        <v>638.8451325091835</v>
+        <v>638.8451325091833</v>
       </c>
       <c r="D43" t="n">
-        <v>536.8202744080754</v>
+        <v>536.8202744080752</v>
       </c>
       <c r="E43" t="n">
-        <v>436.9989621369099</v>
+        <v>436.9989621369097</v>
       </c>
       <c r="F43" t="n">
-        <v>338.2007959502271</v>
+        <v>338.200795950227</v>
       </c>
       <c r="G43" t="n">
-        <v>218.5755432098331</v>
+        <v>218.5755432098333</v>
       </c>
       <c r="H43" t="n">
         <v>120.3239097120027</v>
       </c>
       <c r="I43" t="n">
-        <v>70.66305851127103</v>
+        <v>70.66305851127102</v>
       </c>
       <c r="J43" t="n">
-        <v>161.9366625641268</v>
+        <v>161.9366625641271</v>
       </c>
       <c r="K43" t="n">
-        <v>411.4419422782596</v>
+        <v>411.4419422782599</v>
       </c>
       <c r="L43" t="n">
-        <v>773.0677298205087</v>
+        <v>773.067729820509</v>
       </c>
       <c r="M43" t="n">
         <v>1162.178306841744</v>
@@ -7612,7 +7612,7 @@
         <v>1065.947015477177</v>
       </c>
       <c r="Y43" t="n">
-        <v>893.2462176448748</v>
+        <v>893.2462176448746</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1576.109614371659</v>
+        <v>1698.25585222643</v>
       </c>
       <c r="C44" t="n">
-        <v>1255.238878742475</v>
+        <v>1698.25585222643</v>
       </c>
       <c r="D44" t="n">
-        <v>1255.238878742475</v>
+        <v>1388.081934930907</v>
       </c>
       <c r="E44" t="n">
-        <v>1050.385463643891</v>
+        <v>1050.38546364389</v>
       </c>
       <c r="F44" t="n">
-        <v>687.4913401655109</v>
+        <v>687.4913401655103</v>
       </c>
       <c r="G44" t="n">
         <v>320.4790205951291</v>
       </c>
       <c r="H44" t="n">
-        <v>70.66305851127103</v>
+        <v>70.66305851127102</v>
       </c>
       <c r="I44" t="n">
-        <v>70.66305851127103</v>
+        <v>70.66305851127102</v>
       </c>
       <c r="J44" t="n">
         <v>256.9093312985867</v>
@@ -7652,19 +7652,19 @@
         <v>586.7827330871135</v>
       </c>
       <c r="L44" t="n">
-        <v>1273.760096184597</v>
+        <v>1032.921619265232</v>
       </c>
       <c r="M44" t="n">
-        <v>1801.845006262277</v>
+        <v>1561.006529342912</v>
       </c>
       <c r="N44" t="n">
-        <v>2343.088690659623</v>
+        <v>2102.250213740258</v>
       </c>
       <c r="O44" t="n">
-        <v>2840.834492724648</v>
+        <v>2599.996015805284</v>
       </c>
       <c r="P44" t="n">
-        <v>3231.148018172069</v>
+        <v>3020.956177418762</v>
       </c>
       <c r="Q44" t="n">
         <v>3476.0844741808</v>
@@ -7673,25 +7673,25 @@
         <v>3533.152925563551</v>
       </c>
       <c r="S44" t="n">
-        <v>3533.152925563551</v>
+        <v>3470.232797469341</v>
       </c>
       <c r="T44" t="n">
-        <v>3375.128408203283</v>
+        <v>3312.208280109073</v>
       </c>
       <c r="U44" t="n">
-        <v>3169.687180730219</v>
+        <v>3106.767052636008</v>
       </c>
       <c r="V44" t="n">
-        <v>2886.716074697876</v>
+        <v>2823.795946603665</v>
       </c>
       <c r="W44" t="n">
-        <v>2582.03920073899</v>
+        <v>2519.119072644779</v>
       </c>
       <c r="X44" t="n">
-        <v>2256.665223789138</v>
+        <v>2193.745095694927</v>
       </c>
       <c r="Y44" t="n">
-        <v>1914.617673124553</v>
+        <v>1851.697545030343</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>170.6908263375514</v>
       </c>
       <c r="H45" t="n">
-        <v>80.02537908512099</v>
+        <v>80.02537908512097</v>
       </c>
       <c r="I45" t="n">
-        <v>70.66305851127103</v>
+        <v>70.66305851127102</v>
       </c>
       <c r="J45" t="n">
         <v>162.7722157117022</v>
@@ -7731,22 +7731,22 @@
         <v>398.3562610228704</v>
       </c>
       <c r="L45" t="n">
-        <v>761.4506239758186</v>
+        <v>777.8370975167751</v>
       </c>
       <c r="M45" t="n">
-        <v>1204.521487659485</v>
+        <v>1220.907961200441</v>
       </c>
       <c r="N45" t="n">
-        <v>1673.727763622103</v>
+        <v>1690.114237163059</v>
       </c>
       <c r="O45" t="n">
-        <v>2080.74004404263</v>
+        <v>2097.126517583587</v>
       </c>
       <c r="P45" t="n">
-        <v>2388.070215673316</v>
+        <v>2404.456689214273</v>
       </c>
       <c r="Q45" t="n">
-        <v>2543.593100087774</v>
+        <v>2559.979573628731</v>
       </c>
       <c r="R45" t="n">
         <v>2559.979573628731</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>759.6895341258625</v>
+        <v>759.6895341258626</v>
       </c>
       <c r="C46" t="n">
-        <v>638.8451325091831</v>
+        <v>638.8451325091833</v>
       </c>
       <c r="D46" t="n">
-        <v>536.8202744080751</v>
+        <v>536.8202744080752</v>
       </c>
       <c r="E46" t="n">
-        <v>436.9989621369096</v>
+        <v>436.9989621369097</v>
       </c>
       <c r="F46" t="n">
-        <v>338.2007959502268</v>
+        <v>338.200795950227</v>
       </c>
       <c r="G46" t="n">
-        <v>218.5755432098332</v>
+        <v>218.5755432098333</v>
       </c>
       <c r="H46" t="n">
         <v>120.3239097120027</v>
       </c>
       <c r="I46" t="n">
-        <v>70.66305851127103</v>
+        <v>70.66305851127102</v>
       </c>
       <c r="J46" t="n">
         <v>161.9366625641268</v>
@@ -7828,7 +7828,7 @@
         <v>2294.728805631843</v>
       </c>
       <c r="R46" t="n">
-        <v>2252.351761785336</v>
+        <v>2252.351761785337</v>
       </c>
       <c r="S46" t="n">
         <v>2108.510236502534</v>
@@ -7849,7 +7849,7 @@
         <v>1065.947015477177</v>
       </c>
       <c r="Y46" t="n">
-        <v>893.2462176448745</v>
+        <v>893.2462176448746</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>226.6880767567238</v>
       </c>
       <c r="L2" t="n">
         <v>242.6424607116987</v>
@@ -7988,10 +7988,10 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>236.0112893083342</v>
+        <v>236.2891093383024</v>
       </c>
       <c r="O2" t="n">
-        <v>236.9742571633982</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
         <v>238.109041496981</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>144.7174847160704</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>149.0100796637298</v>
+        <v>148.7322596337616</v>
       </c>
       <c r="N3" t="n">
         <v>138.2177578250447</v>
       </c>
       <c r="O3" t="n">
-        <v>149.1944701561877</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>140.8504531560417</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>146.857819827733</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8140,13 +8140,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>141.7607220229497</v>
+        <v>141.4829019929816</v>
       </c>
       <c r="M4" t="n">
         <v>145.8018296893165</v>
       </c>
       <c r="N4" t="n">
-        <v>134.2837701769765</v>
+        <v>134.5615902069446</v>
       </c>
       <c r="O4" t="n">
         <v>145.3325841935542</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>226.6880767567238</v>
+        <v>226.965896786692</v>
       </c>
       <c r="L5" t="n">
         <v>242.6424607116987</v>
@@ -8225,10 +8225,10 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>236.0112893083342</v>
       </c>
       <c r="O5" t="n">
-        <v>236.9742571633982</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
         <v>238.109041496981</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>144.7174847160704</v>
+        <v>144.4396646861023</v>
       </c>
       <c r="L6" t="n">
-        <v>145.1526054916175</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
@@ -8307,7 +8307,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P6" t="n">
         <v>140.8504531560417</v>
@@ -8377,10 +8377,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>141.7607220229497</v>
+        <v>141.4829019929816</v>
       </c>
       <c r="M7" t="n">
-        <v>145.5240096593483</v>
+        <v>145.8018296893165</v>
       </c>
       <c r="N7" t="n">
         <v>134.5615902069446</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>234.7742961352617</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>251.0691524851223</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>245.0306783175538</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>244.715801111726</v>
       </c>
       <c r="O8" t="n">
         <v>245.4009489368218</v>
       </c>
       <c r="P8" t="n">
-        <v>246.5357332704046</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>153.144176489494</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
@@ -8541,16 +8541,16 @@
         <v>157.4367714371534</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>146.6444495984684</v>
       </c>
       <c r="O9" t="n">
-        <v>157.2806895347256</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>149.2771449294653</v>
       </c>
       <c r="Q9" t="n">
-        <v>155.2845116011566</v>
+        <v>154.6662191763026</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8617,10 +8617,10 @@
         <v>150.1874137963733</v>
       </c>
       <c r="M10" t="n">
-        <v>154.2285214627401</v>
+        <v>153.6102290378862</v>
       </c>
       <c r="N10" t="n">
-        <v>142.3699895555143</v>
+        <v>142.9882819803682</v>
       </c>
       <c r="O10" t="n">
         <v>153.7592759669778</v>
@@ -8696,13 +8696,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>74.1745736353655</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>8.458153762383631</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,13 +8769,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>16.55199347571357</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>243.2711888074391</v>
+        <v>243.27118880744</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>16.55199347571359</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.183828205792452</v>
+        <v>17.73582168150615</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>14.85884343718806</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>51.10845215565939</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>16.5519934757134</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>16.55199347571261</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.183828205792423</v>
+        <v>1.183828205792452</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9413,13 +9413,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>220.2050673277354</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>261.076738415883</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9489,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>16.55199347571318</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>16.55199347571335</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>1.183828205792452</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,22 +9644,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>304.8052326662897</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>82.15880670208102</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,13 +9717,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>16.5519934757134</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>16.55199347571335</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9875,28 +9875,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>143.1364133322236</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>235.5349453695871</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>16.55199347571332</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>1.183828205792452</v>
+        <v>17.73582168150569</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,25 +10112,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>356.384719426615</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>179.6398420383342</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10194,13 +10194,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>16.55199347571335</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>16.55199347571318</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10346,22 +10346,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>92.4311131715624</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>351.6197712300714</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>16.55199347571318</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>16.55199347571323</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10583,25 +10583,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>12.51213903750659</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>263.4234428155644</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10671,10 +10671,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>16.55199347571335</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>16.55199347571318</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10829,13 +10829,13 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>316.9718417471373</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>251.2554218741543</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,7 +10905,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>16.5519934757134</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>16.5519934757142</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1.183828205792452</v>
+        <v>1.18382820579248</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>243.2711888074396</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>243.2711888074391</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>16.55199347571357</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1.183828205792452</v>
+        <v>17.73582168150615</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>243.2711888074397</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11312,10 +11312,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>30.956198147534</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11379,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>16.55199347571357</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>17.73582168150615</v>
+        <v>1.183828205792452</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>137.5355341877061</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>363.3421963746779</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>162.2506554044447</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>338.6270751579382</v>
       </c>
     </row>
     <row r="12">
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>317.6620282728922</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>183.2157022894908</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>203.3868151983338</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>297.4909153640499</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-7.744915819785092e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0398637111051</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.8799806609676</v>
       </c>
       <c r="I28" t="n">
         <v>96.77510618683968</v>
@@ -24649,25 +24649,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>190.01397352809</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.6090043895884</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2126048666352</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>94.59220837818737</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>136.3771838417381</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0398637111051</v>
+        <v>166.039863711105</v>
       </c>
       <c r="H31" t="n">
-        <v>144.8799806609676</v>
+        <v>144.8799806609675</v>
       </c>
       <c r="I31" t="n">
-        <v>96.77510618683968</v>
+        <v>96.77510618683962</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>89.5641369061567</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>190.01397352809</v>
       </c>
       <c r="T31" t="n">
-        <v>219.6090043895884</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>79.58353608490921</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>76.08880825909313</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>165.0666674030076</v>
       </c>
       <c r="D34" t="n">
-        <v>58.45155831120631</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>144.2538089509491</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>143.2408943273111</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>36.75478077499508</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.6998269653474</v>
       </c>
       <c r="I34" t="n">
-        <v>94.5949524912196</v>
+        <v>94.59495249121949</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,22 +25126,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4288506939683</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>284.0324511710152</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>284.342844640971</v>
+        <v>284.3428446409708</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>216.4044996564746</v>
       </c>
     </row>
     <row r="35">
@@ -25324,10 +25324,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>5.826450433232822e-13</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-6.394884621840902e-13</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25631,10 +25631,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>162.2506554044456</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>334.3195065741464</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>166.558223988238</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>338.6270751579382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25862,16 +25862,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>183.2157022894912</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>317.6620282728922</v>
       </c>
       <c r="D44" t="n">
-        <v>307.0721781225676</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>131.5146256265486</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.29092681326762</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>764624.4517494017</v>
+        <v>764624.4517494015</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>764624.4517494016</v>
+        <v>764624.4517494015</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>757715.506136463</v>
+        <v>757715.5061364631</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>716537.7549847541</v>
+        <v>716537.7549847543</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697315.3544192511</v>
+        <v>697315.3544192512</v>
       </c>
       <c r="C2" t="n">
-        <v>697315.3544192509</v>
+        <v>697315.3544192512</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
-        <v>663996.1171347899</v>
+        <v>663996.1171347902</v>
       </c>
       <c r="F2" t="n">
-        <v>663996.1171347901</v>
+        <v>663996.1171347902</v>
       </c>
       <c r="G2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="H2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="I2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.504384641</v>
       </c>
       <c r="J2" t="n">
-        <v>674729.8504651298</v>
+        <v>674729.8504651296</v>
       </c>
       <c r="K2" t="n">
-        <v>674729.8504651292</v>
+        <v>674729.8504651294</v>
       </c>
       <c r="L2" t="n">
         <v>675790.1732729508</v>
       </c>
       <c r="M2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="N2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="O2" t="n">
-        <v>663996.1171347899</v>
+        <v>663996.1171347904</v>
       </c>
       <c r="P2" t="n">
         <v>663996.1171347901</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>35374.9414505233</v>
+        <v>35374.94145052326</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49622.66356853298</v>
+        <v>49622.66356853307</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1744.122956496058</v>
+        <v>1744.122956496106</v>
       </c>
       <c r="M3" t="n">
         <v>209200.2000255337</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>408996.6277656587</v>
+        <v>408996.6277656588</v>
       </c>
       <c r="C4" t="n">
-        <v>408996.6277656587</v>
+        <v>408996.6277656588</v>
       </c>
       <c r="D4" t="n">
-        <v>408123.0807897231</v>
+        <v>408123.0807897232</v>
       </c>
       <c r="E4" t="n">
+        <v>62021.42105130876</v>
+      </c>
+      <c r="F4" t="n">
+        <v>62021.42105130876</v>
+      </c>
+      <c r="G4" t="n">
+        <v>74286.25627920266</v>
+      </c>
+      <c r="H4" t="n">
+        <v>74286.25627920267</v>
+      </c>
+      <c r="I4" t="n">
+        <v>74286.25627920267</v>
+      </c>
+      <c r="J4" t="n">
+        <v>43761.87059761221</v>
+      </c>
+      <c r="K4" t="n">
+        <v>43761.87059761225</v>
+      </c>
+      <c r="L4" t="n">
+        <v>45164.24453885674</v>
+      </c>
+      <c r="M4" t="n">
+        <v>74286.25627920273</v>
+      </c>
+      <c r="N4" t="n">
+        <v>74286.25627920275</v>
+      </c>
+      <c r="O4" t="n">
         <v>62021.42105130871</v>
       </c>
-      <c r="F4" t="n">
+      <c r="P4" t="n">
         <v>62021.4210513087</v>
-      </c>
-      <c r="G4" t="n">
-        <v>74286.25627920263</v>
-      </c>
-      <c r="H4" t="n">
-        <v>74286.2562792027</v>
-      </c>
-      <c r="I4" t="n">
-        <v>74286.2562792027</v>
-      </c>
-      <c r="J4" t="n">
-        <v>43761.87059761222</v>
-      </c>
-      <c r="K4" t="n">
-        <v>43761.87059761221</v>
-      </c>
-      <c r="L4" t="n">
-        <v>45164.24453885663</v>
-      </c>
-      <c r="M4" t="n">
-        <v>74286.2562792027</v>
-      </c>
-      <c r="N4" t="n">
-        <v>74286.25627920269</v>
-      </c>
-      <c r="O4" t="n">
-        <v>62021.42105130875</v>
-      </c>
-      <c r="P4" t="n">
-        <v>62021.42105130875</v>
       </c>
     </row>
     <row r="5">
@@ -26476,34 +26476,34 @@
         <v>34558.00644092021</v>
       </c>
       <c r="E5" t="n">
-        <v>81293.73658699769</v>
+        <v>81293.73658699771</v>
       </c>
       <c r="F5" t="n">
-        <v>81293.73658699769</v>
+        <v>81293.73658699771</v>
       </c>
       <c r="G5" t="n">
         <v>89140.92428494475</v>
       </c>
       <c r="H5" t="n">
-        <v>89140.92428494476</v>
+        <v>89140.92428494475</v>
       </c>
       <c r="I5" t="n">
-        <v>89140.92428494476</v>
+        <v>89140.92428494475</v>
       </c>
       <c r="J5" t="n">
-        <v>96251.41964915325</v>
+        <v>96251.41964915323</v>
       </c>
       <c r="K5" t="n">
-        <v>96251.41964915325</v>
+        <v>96251.41964915323</v>
       </c>
       <c r="L5" t="n">
-        <v>95922.36013036617</v>
+        <v>95922.36013036619</v>
       </c>
       <c r="M5" t="n">
         <v>89140.92428494475</v>
       </c>
       <c r="N5" t="n">
-        <v>89140.92428494475</v>
+        <v>89140.92428494473</v>
       </c>
       <c r="O5" t="n">
         <v>81293.73658699769</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>251968.7419953968</v>
+        <v>251967.0650837339</v>
       </c>
       <c r="C6" t="n">
-        <v>254273.0630724961</v>
+        <v>254271.3861608335</v>
       </c>
       <c r="D6" t="n">
-        <v>252586.8338884189</v>
+        <v>252586.8338884187</v>
       </c>
       <c r="E6" t="n">
-        <v>-645836.9407314004</v>
+        <v>-645936.6153997821</v>
       </c>
       <c r="F6" t="n">
-        <v>520680.9594964836</v>
+        <v>520581.2848281018</v>
       </c>
       <c r="G6" t="n">
-        <v>499083.3823699701</v>
+        <v>499083.3823699702</v>
       </c>
       <c r="H6" t="n">
-        <v>534458.3238204932</v>
+        <v>534458.3238204934</v>
       </c>
       <c r="I6" t="n">
-        <v>534458.3238204934</v>
+        <v>534458.3238204935</v>
       </c>
       <c r="J6" t="n">
-        <v>485093.8966498313</v>
+        <v>485025.7917853619</v>
       </c>
       <c r="K6" t="n">
-        <v>534716.5602183638</v>
+        <v>534648.4553538947</v>
       </c>
       <c r="L6" t="n">
-        <v>532959.4456472319</v>
+        <v>532894.4593792562</v>
       </c>
       <c r="M6" t="n">
-        <v>325258.1237949596</v>
+        <v>325258.1237949599</v>
       </c>
       <c r="N6" t="n">
-        <v>534458.3238204932</v>
+        <v>534458.3238204936</v>
       </c>
       <c r="O6" t="n">
-        <v>520680.9594964835</v>
+        <v>520581.284828102</v>
       </c>
       <c r="P6" t="n">
-        <v>520680.9594964836</v>
+        <v>520581.2848281017</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="F2" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="G2" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="H2" t="n">
         <v>47.61086349811533</v>
       </c>
       <c r="I2" t="n">
+        <v>47.61086349811532</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.428292132937336e-14</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6.002665031701327e-14</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.180153695620192</v>
+      </c>
+      <c r="M2" t="n">
+        <v>47.6108634981154</v>
+      </c>
+      <c r="N2" t="n">
+        <v>47.6108634981154</v>
+      </c>
+      <c r="O2" t="n">
+        <v>47.61086349811532</v>
+      </c>
+      <c r="P2" t="n">
         <v>47.61086349811533</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.180153695620072</v>
-      </c>
-      <c r="M2" t="n">
-        <v>47.61086349811534</v>
-      </c>
-      <c r="N2" t="n">
-        <v>47.61086349811534</v>
-      </c>
-      <c r="O2" t="n">
-        <v>47.61086349811534</v>
-      </c>
-      <c r="P2" t="n">
-        <v>47.61086349811534</v>
       </c>
     </row>
     <row r="3">
@@ -26750,7 +26750,7 @@
         <v>1081.982313532507</v>
       </c>
       <c r="G3" t="n">
-        <v>1081.982313532508</v>
+        <v>1081.982313532507</v>
       </c>
       <c r="H3" t="n">
         <v>1081.982313532507</v>
@@ -26796,10 +26796,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>883.2882313908877</v>
+        <v>883.288231390888</v>
       </c>
       <c r="F4" t="n">
-        <v>883.2882313908877</v>
+        <v>883.288231390888</v>
       </c>
       <c r="G4" t="n">
         <v>1012.353818528175</v>
@@ -26826,10 +26826,10 @@
         <v>1012.353818528175</v>
       </c>
       <c r="O4" t="n">
-        <v>883.2882313908879</v>
+        <v>883.2882313908877</v>
       </c>
       <c r="P4" t="n">
-        <v>883.2882313908879</v>
+        <v>883.2882313908877</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.553435746746745e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620132</v>
       </c>
       <c r="M2" t="n">
-        <v>45.43070980249527</v>
+        <v>45.43070980249521</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>8.426691773423613</v>
       </c>
       <c r="E4" t="n">
-        <v>867.9854938757527</v>
+        <v>867.9854938757529</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>129.065587137287</v>
+        <v>129.0655871372868</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>189.6571813935461</v>
+        <v>189.6571813935462</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>693.6310499973416</v>
+        <v>693.6310499973415</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.553435746746745e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>8.426691773423613</v>
       </c>
       <c r="M4" t="n">
-        <v>867.9854938757527</v>
+        <v>867.9854938757529</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>129.065587137287</v>
+        <v>129.0655871372868</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27421,16 +27421,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.114653472833368</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>143.8126968518503</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>202.9636484969459</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>216.2198038224199</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27467,16 +27467,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>138.1931666516724</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>130.4674714214992</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>82.52058710970364</v>
+        <v>83.34021176211564</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.1014130633437</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>193.2886829531102</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>219.0653363392634</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>138.5450022812198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>155.3511267657281</v>
+        <v>156.1707514181402</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>87.30275902737334</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27579,13 +27579,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>79.28599750998295</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>217.1405522952608</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27594,10 +27594,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>245.2615975821166</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>279.6469525948796</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>375.8739489829624</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>203.5998438286945</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -27661,7 +27661,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>142.9930721994382</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>363.6746795891696</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>159.6571379081559</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>140.5690198229273</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27743,7 +27743,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>164.8071253621264</v>
       </c>
       <c r="T6" t="n">
         <v>193.2886829531102</v>
@@ -27752,16 +27752,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>226.7441660601258</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>199.7165641141781</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>198.8066500355929</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>173.7755590926379</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>141.7394272765009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>161.9345582691593</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27816,7 +27816,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>79.28599750998295</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27825,16 +27825,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>221.0695436865701</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>279.4429836147795</v>
       </c>
       <c r="V7" t="n">
-        <v>245.2615975821166</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>279.6469525948796</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>339.3803041055479</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27895,10 +27895,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>143.2665124795302</v>
+        <v>137.9544741789399</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27941,7 +27941,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>129.7664748782488</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27950,7 +27950,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -27980,19 +27980,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>156.3804335887028</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>184.8619911796866</v>
       </c>
       <c r="U9" t="n">
-        <v>212.4627308776439</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>238.2163319575887</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164.5292426668022</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>133.3127355030773</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>154.5123281551278</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28053,25 +28053,25 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>70.85930573655934</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>208.7138605218372</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>271.0162918413558</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>238.6589921204971</v>
       </c>
       <c r="W10" t="n">
-        <v>271.220260821456</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="C11" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="D11" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="E11" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="F11" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="G11" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="H11" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="I11" t="n">
         <v>42.78494226402603</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="T11" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="U11" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="V11" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="W11" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="X11" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="Y11" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="C13" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="D13" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="E13" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="F13" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="G13" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="H13" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="I13" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="J13" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="K13" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="L13" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="M13" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="N13" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="O13" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="P13" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="Q13" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="R13" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="S13" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="T13" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="U13" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="V13" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="W13" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="X13" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811536</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="C14" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="D14" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="E14" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="F14" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="G14" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="H14" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="I14" t="n">
         <v>42.78494226402603</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="T14" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="U14" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="V14" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="W14" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="X14" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="Y14" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="C16" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="D16" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="E16" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="F16" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="G16" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="H16" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="I16" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="J16" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="K16" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="L16" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="M16" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="N16" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="O16" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="P16" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="Q16" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="R16" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="S16" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="T16" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="U16" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="V16" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="W16" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="X16" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811534</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="C17" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="D17" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="E17" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="F17" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="G17" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="H17" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="I17" t="n">
-        <v>42.784942264026</v>
+        <v>42.78494226402603</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="T17" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="U17" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="V17" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="W17" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="X17" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="Y17" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="C19" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="D19" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="E19" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="F19" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="G19" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="H19" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="I19" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="J19" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="K19" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="L19" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="M19" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="N19" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="O19" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="P19" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="Q19" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="R19" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="S19" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="T19" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="U19" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="V19" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="W19" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="X19" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
     </row>
     <row r="20">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="C23" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="D23" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="E23" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="F23" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="G23" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="H23" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="I23" t="n">
         <v>42.78494226402603</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="T23" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="U23" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="V23" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="W23" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="X23" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="Y23" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="C25" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="D25" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="E25" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="F25" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="G25" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="H25" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="I25" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="J25" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="K25" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="L25" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="M25" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811586</v>
       </c>
       <c r="N25" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="O25" t="n">
-        <v>47.61086349811592</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="P25" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="R25" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="S25" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="T25" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="U25" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="V25" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="W25" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="X25" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.61086349811533</v>
+        <v>47.61086349811532</v>
       </c>
     </row>
     <row r="26">
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>7.192522439705215e-13</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
     </row>
     <row r="30">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="C32" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="D32" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="E32" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="F32" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="G32" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="H32" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="I32" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="T32" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="U32" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="V32" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="W32" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="X32" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="C34" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="D34" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="E34" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="F34" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="G34" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="H34" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="I34" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="J34" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="K34" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="L34" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="M34" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="N34" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="O34" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="P34" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="R34" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="S34" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="T34" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="U34" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="V34" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="W34" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="X34" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.180153695620072</v>
+        <v>2.180153695620192</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="C35" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="D35" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="E35" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="F35" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="G35" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="H35" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="I35" t="n">
         <v>42.78494226402603</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="T35" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="U35" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="V35" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="W35" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="X35" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="Y35" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="C37" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="D37" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="E37" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="F37" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="G37" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="H37" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="I37" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="J37" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="K37" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="L37" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="M37" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="N37" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="O37" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="P37" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="R37" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="S37" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="T37" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="U37" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="V37" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="W37" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="X37" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="C38" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="D38" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="E38" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="F38" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="G38" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="H38" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="I38" t="n">
-        <v>42.78494226402603</v>
+        <v>42.78494226402606</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="T38" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="U38" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="V38" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="W38" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="X38" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="Y38" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="C40" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="D40" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="E40" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="F40" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="G40" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="H40" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="I40" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="J40" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="K40" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="L40" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="M40" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="N40" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="O40" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="P40" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="R40" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="S40" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="T40" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="U40" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="V40" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="W40" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="X40" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.61086349811534</v>
+        <v>47.6108634981154</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="C41" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="D41" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="E41" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="F41" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="G41" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="H41" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="I41" t="n">
         <v>42.78494226402603</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="T41" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="U41" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="V41" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="W41" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="X41" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="Y41" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="C43" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="D43" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="E43" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="F43" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="G43" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="H43" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="I43" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="J43" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811565</v>
       </c>
       <c r="K43" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="L43" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="M43" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="N43" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="O43" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="P43" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="R43" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="S43" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="T43" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="U43" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="V43" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="W43" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="X43" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811532</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="C44" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="D44" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="E44" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="F44" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="G44" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="H44" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="I44" t="n">
         <v>42.78494226402603</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="T44" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="U44" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="V44" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="W44" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="X44" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="Y44" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="C46" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="D46" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="E46" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="F46" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="G46" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="H46" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="I46" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="J46" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="K46" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="L46" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="M46" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="N46" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="O46" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="P46" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="R46" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="S46" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="T46" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="U46" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="V46" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="W46" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="X46" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.61086349811534</v>
+        <v>47.61086349811533</v>
       </c>
     </row>
   </sheetData>
@@ -32224,46 +32224,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.349677642341735</v>
+        <v>4.349677642341734</v>
       </c>
       <c r="H17" t="n">
-        <v>44.54613615463231</v>
+        <v>44.5461361546323</v>
       </c>
       <c r="I17" t="n">
         <v>167.6909473063799</v>
       </c>
       <c r="J17" t="n">
-        <v>369.1734527967022</v>
+        <v>369.1734527967021</v>
       </c>
       <c r="K17" t="n">
-        <v>553.295307397028</v>
+        <v>553.2953073970278</v>
       </c>
       <c r="L17" t="n">
-        <v>686.411754543844</v>
+        <v>686.4117545438439</v>
       </c>
       <c r="M17" t="n">
-        <v>763.7653343158388</v>
+        <v>763.7653343158387</v>
       </c>
       <c r="N17" t="n">
-        <v>776.1238559171424</v>
+        <v>776.1238559171422</v>
       </c>
       <c r="O17" t="n">
-        <v>732.8717488611067</v>
+        <v>732.8717488611065</v>
       </c>
       <c r="P17" t="n">
-        <v>625.4890820657949</v>
+        <v>625.4890820657948</v>
       </c>
       <c r="Q17" t="n">
-        <v>469.7162514994314</v>
+        <v>469.7162514994313</v>
       </c>
       <c r="R17" t="n">
-        <v>273.2304382007493</v>
+        <v>273.2304382007492</v>
       </c>
       <c r="S17" t="n">
-        <v>99.1182792748624</v>
+        <v>99.11827927486237</v>
       </c>
       <c r="T17" t="n">
-        <v>19.04071387935096</v>
+        <v>19.04071387935095</v>
       </c>
       <c r="U17" t="n">
         <v>0.3479742113873387</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.327282712126526</v>
+        <v>2.327282712126525</v>
       </c>
       <c r="H18" t="n">
-        <v>22.4766514565904</v>
+        <v>22.47665145659039</v>
       </c>
       <c r="I18" t="n">
-        <v>80.12793548330363</v>
+        <v>80.12793548330362</v>
       </c>
       <c r="J18" t="n">
-        <v>219.877179394375</v>
+        <v>219.8771793943749</v>
       </c>
       <c r="K18" t="n">
-        <v>375.8051211068522</v>
+        <v>375.8051211068521</v>
       </c>
       <c r="L18" t="n">
-        <v>505.3163625606301</v>
+        <v>505.31636256063</v>
       </c>
       <c r="M18" t="n">
-        <v>589.6803608752165</v>
+        <v>589.6803608752164</v>
       </c>
       <c r="N18" t="n">
-        <v>605.2874453789073</v>
+        <v>605.2874453789071</v>
       </c>
       <c r="O18" t="n">
-        <v>553.7197600207353</v>
+        <v>553.7197600207352</v>
       </c>
       <c r="P18" t="n">
-        <v>444.408924213003</v>
+        <v>444.4089242130029</v>
       </c>
       <c r="Q18" t="n">
         <v>297.0755967268877</v>
@@ -32339,10 +32339,10 @@
         <v>144.4956757581715</v>
       </c>
       <c r="S18" t="n">
-        <v>43.22825563971855</v>
+        <v>43.22825563971854</v>
       </c>
       <c r="T18" t="n">
-        <v>9.38058251072051</v>
+        <v>9.380582510720508</v>
       </c>
       <c r="U18" t="n">
         <v>0.1531107047451662</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.951115647353702</v>
+        <v>1.951115647353701</v>
       </c>
       <c r="H19" t="n">
-        <v>17.34719184647202</v>
+        <v>17.34719184647201</v>
       </c>
       <c r="I19" t="n">
-        <v>58.67536874041862</v>
+        <v>58.67536874041861</v>
       </c>
       <c r="J19" t="n">
         <v>137.9438762679067</v>
@@ -32397,7 +32397,7 @@
         <v>226.6841633925482</v>
       </c>
       <c r="L19" t="n">
-        <v>290.0776845165677</v>
+        <v>290.0776845165676</v>
       </c>
       <c r="M19" t="n">
         <v>305.8462464301807</v>
@@ -32406,22 +32406,22 @@
         <v>298.5739062900444</v>
       </c>
       <c r="O19" t="n">
-        <v>275.7813280459579</v>
+        <v>275.7813280459578</v>
       </c>
       <c r="P19" t="n">
-        <v>235.9785688399422</v>
+        <v>235.9785688399421</v>
       </c>
       <c r="Q19" t="n">
         <v>163.3793293434086</v>
       </c>
       <c r="R19" t="n">
-        <v>87.72925447101279</v>
+        <v>87.72925447101278</v>
       </c>
       <c r="S19" t="n">
-        <v>34.00262450888223</v>
+        <v>34.00262450888222</v>
       </c>
       <c r="T19" t="n">
-        <v>8.336585038693087</v>
+        <v>8.336585038693086</v>
       </c>
       <c r="U19" t="n">
         <v>0.1064244898556566</v>
@@ -33883,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.349677642341734</v>
+        <v>4.349677642341733</v>
       </c>
       <c r="H38" t="n">
-        <v>44.5461361546323</v>
+        <v>44.54613615463229</v>
       </c>
       <c r="I38" t="n">
         <v>167.6909473063799</v>
@@ -33895,37 +33895,37 @@
         <v>369.1734527967021</v>
       </c>
       <c r="K38" t="n">
-        <v>553.2953073970278</v>
+        <v>553.2953073970277</v>
       </c>
       <c r="L38" t="n">
-        <v>686.4117545438439</v>
+        <v>686.4117545438437</v>
       </c>
       <c r="M38" t="n">
-        <v>763.7653343158387</v>
+        <v>763.7653343158385</v>
       </c>
       <c r="N38" t="n">
-        <v>776.1238559171422</v>
+        <v>776.123855917142</v>
       </c>
       <c r="O38" t="n">
-        <v>732.8717488611065</v>
+        <v>732.8717488611063</v>
       </c>
       <c r="P38" t="n">
-        <v>625.4890820657948</v>
+        <v>625.4890820657947</v>
       </c>
       <c r="Q38" t="n">
-        <v>469.7162514994313</v>
+        <v>469.7162514994312</v>
       </c>
       <c r="R38" t="n">
         <v>273.2304382007492</v>
       </c>
       <c r="S38" t="n">
-        <v>99.11827927486237</v>
+        <v>99.11827927486236</v>
       </c>
       <c r="T38" t="n">
         <v>19.04071387935095</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3479742113873387</v>
+        <v>0.3479742113873386</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33968,40 @@
         <v>22.47665145659039</v>
       </c>
       <c r="I39" t="n">
-        <v>80.12793548330362</v>
+        <v>80.1279354833036</v>
       </c>
       <c r="J39" t="n">
         <v>219.8771793943749</v>
       </c>
       <c r="K39" t="n">
-        <v>375.8051211068521</v>
+        <v>375.805121106852</v>
       </c>
       <c r="L39" t="n">
-        <v>505.31636256063</v>
+        <v>505.3163625606299</v>
       </c>
       <c r="M39" t="n">
-        <v>589.6803608752164</v>
+        <v>589.6803608752163</v>
       </c>
       <c r="N39" t="n">
-        <v>605.2874453789071</v>
+        <v>605.287445378907</v>
       </c>
       <c r="O39" t="n">
-        <v>553.7197600207352</v>
+        <v>553.7197600207351</v>
       </c>
       <c r="P39" t="n">
-        <v>444.4089242130029</v>
+        <v>444.4089242130028</v>
       </c>
       <c r="Q39" t="n">
-        <v>297.0755967268877</v>
+        <v>297.0755967268876</v>
       </c>
       <c r="R39" t="n">
         <v>144.4956757581715</v>
       </c>
       <c r="S39" t="n">
-        <v>43.22825563971854</v>
+        <v>43.22825563971853</v>
       </c>
       <c r="T39" t="n">
-        <v>9.380582510720508</v>
+        <v>9.380582510720506</v>
       </c>
       <c r="U39" t="n">
         <v>0.1531107047451662</v>
@@ -34047,22 +34047,22 @@
         <v>17.34719184647201</v>
       </c>
       <c r="I40" t="n">
-        <v>58.67536874041861</v>
+        <v>58.67536874041859</v>
       </c>
       <c r="J40" t="n">
         <v>137.9438762679067</v>
       </c>
       <c r="K40" t="n">
-        <v>226.6841633925482</v>
+        <v>226.6841633925481</v>
       </c>
       <c r="L40" t="n">
         <v>290.0776845165676</v>
       </c>
       <c r="M40" t="n">
-        <v>305.8462464301807</v>
+        <v>305.8462464301806</v>
       </c>
       <c r="N40" t="n">
-        <v>298.5739062900444</v>
+        <v>298.5739062900443</v>
       </c>
       <c r="O40" t="n">
         <v>275.7813280459578</v>
@@ -34074,16 +34074,16 @@
         <v>163.3793293434086</v>
       </c>
       <c r="R40" t="n">
-        <v>87.72925447101278</v>
+        <v>87.72925447101275</v>
       </c>
       <c r="S40" t="n">
-        <v>34.00262450888222</v>
+        <v>34.00262450888221</v>
       </c>
       <c r="T40" t="n">
-        <v>8.336585038693086</v>
+        <v>8.336585038693084</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1064244898556566</v>
+        <v>0.1064244898556565</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34699,7 +34699,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="L2" t="n">
         <v>6.876045741711437</v>
@@ -34708,10 +34708,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>6.876045741711437</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="N3" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O3" t="n">
-        <v>6.598225711743297</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,13 +34860,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="M4" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="N4" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O4" t="n">
         <v>6.876045741711437</v>
@@ -34936,7 +34936,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L5" t="n">
         <v>6.876045741711437</v>
@@ -34945,10 +34945,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="O5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>6.876045741711437</v>
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="L6" t="n">
-        <v>6.598225711743296</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>6.876045741711437</v>
@@ -35097,10 +35097,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="M7" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="M7" t="n">
-        <v>6.598225711743296</v>
       </c>
       <c r="N7" t="n">
         <v>6.876045741711437</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="O8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="P8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>15.30273751513505</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="Q9" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35337,10 +35337,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M10" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="N10" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="N10" t="n">
-        <v>14.68444509028111</v>
       </c>
       <c r="O10" t="n">
         <v>15.30273751513505</v>
@@ -35416,13 +35416,13 @@
         <v>450.6453395738567</v>
       </c>
       <c r="M11" t="n">
-        <v>607.5936747239315</v>
+        <v>533.419101088566</v>
       </c>
       <c r="N11" t="n">
         <v>546.7107923205513</v>
       </c>
       <c r="O11" t="n">
-        <v>502.7735374394198</v>
+        <v>511.2316912018034</v>
       </c>
       <c r="P11" t="n">
         <v>394.2560863105253</v>
@@ -35431,7 +35431,7 @@
         <v>247.4105616249819</v>
       </c>
       <c r="R11" t="n">
-        <v>57.64490038661711</v>
+        <v>123.3613202595996</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>93.03955272770824</v>
       </c>
       <c r="K12" t="n">
-        <v>254.5156756082067</v>
+        <v>237.9636821324931</v>
       </c>
       <c r="L12" t="n">
         <v>366.7619827807558</v>
       </c>
       <c r="M12" t="n">
-        <v>447.546326953198</v>
+        <v>464.0983204289116</v>
       </c>
       <c r="N12" t="n">
         <v>473.9457332955739</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.19555964934924</v>
+        <v>92.19555964934926</v>
       </c>
       <c r="K13" t="n">
         <v>252.0255350647807</v>
@@ -35586,7 +35586,7 @@
         <v>280.867991602951</v>
       </c>
       <c r="Q13" t="n">
-        <v>124.8281495898295</v>
+        <v>124.8281495898296</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>533.419101088566</v>
       </c>
       <c r="N14" t="n">
-        <v>789.9819811279904</v>
+        <v>789.9819811279913</v>
       </c>
       <c r="O14" t="n">
         <v>502.7735374394198</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>109.5915462034218</v>
+        <v>93.03955272770824</v>
       </c>
       <c r="K15" t="n">
         <v>237.9636821324931</v>
@@ -35747,7 +35747,7 @@
         <v>157.0938226408662</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>16.55199347571369</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.19555964934924</v>
+        <v>92.19555964934926</v>
       </c>
       <c r="K16" t="n">
         <v>252.0255350647807</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>357.2241634420897</v>
+        <v>188.1275482700158</v>
       </c>
       <c r="K17" t="n">
-        <v>333.2054563520474</v>
+        <v>348.0642997892353</v>
       </c>
       <c r="L17" t="n">
-        <v>450.6453395738568</v>
+        <v>868.3065541243071</v>
       </c>
       <c r="M17" t="n">
-        <v>533.4191010885661</v>
+        <v>533.419101088566</v>
       </c>
       <c r="N17" t="n">
-        <v>597.8192444762109</v>
+        <v>546.7107923205513</v>
       </c>
       <c r="O17" t="n">
-        <v>502.7735374394199</v>
+        <v>502.7735374394198</v>
       </c>
       <c r="P17" t="n">
         <v>716.054794482008</v>
       </c>
       <c r="Q17" t="n">
-        <v>459.7255522848866</v>
+        <v>247.4105616249819</v>
       </c>
       <c r="R17" t="n">
-        <v>57.64490038661717</v>
+        <v>57.64490038661711</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>93.0395527277083</v>
+        <v>93.03955272770824</v>
       </c>
       <c r="K18" t="n">
-        <v>237.9636821324932</v>
+        <v>254.5156756082065</v>
       </c>
       <c r="L18" t="n">
-        <v>366.7619827807559</v>
+        <v>366.7619827807558</v>
       </c>
       <c r="M18" t="n">
-        <v>447.5463269531982</v>
+        <v>447.546326953198</v>
       </c>
       <c r="N18" t="n">
-        <v>473.945733295574</v>
+        <v>473.9457332955739</v>
       </c>
       <c r="O18" t="n">
-        <v>427.6755090520035</v>
+        <v>411.1235155762907</v>
       </c>
       <c r="P18" t="n">
         <v>310.4345167986727</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.19555964934926</v>
+        <v>92.19555964934924</v>
       </c>
       <c r="K19" t="n">
         <v>252.0255350647807</v>
@@ -36048,19 +36048,19 @@
         <v>365.2785732749991</v>
       </c>
       <c r="M19" t="n">
-        <v>393.0409868901367</v>
+        <v>393.0409868901365</v>
       </c>
       <c r="N19" t="n">
         <v>390.3169421673883</v>
       </c>
       <c r="O19" t="n">
-        <v>347.9773194581129</v>
+        <v>347.9773194581128</v>
       </c>
       <c r="P19" t="n">
         <v>280.867991602951</v>
       </c>
       <c r="Q19" t="n">
-        <v>124.8281495898296</v>
+        <v>124.8281495898295</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>188.1275482700158</v>
+        <v>357.2241634420896</v>
       </c>
       <c r="K20" t="n">
-        <v>333.2054563520473</v>
+        <v>657.350868923212</v>
       </c>
       <c r="L20" t="n">
         <v>450.6453395738567</v>
@@ -36133,13 +36133,13 @@
         <v>546.7107923205513</v>
       </c>
       <c r="O20" t="n">
-        <v>722.9786047671552</v>
+        <v>502.7735374394198</v>
       </c>
       <c r="P20" t="n">
-        <v>716.054794482008</v>
+        <v>655.3328247264083</v>
       </c>
       <c r="Q20" t="n">
-        <v>459.7255522848865</v>
+        <v>247.4105616249819</v>
       </c>
       <c r="R20" t="n">
         <v>57.64490038661711</v>
@@ -36209,7 +36209,7 @@
         <v>447.546326953198</v>
       </c>
       <c r="N21" t="n">
-        <v>473.9457332955739</v>
+        <v>490.497726771287</v>
       </c>
       <c r="O21" t="n">
         <v>411.1235155762907</v>
@@ -36218,7 +36218,7 @@
         <v>310.4345167986727</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.6458161165795</v>
+        <v>157.0938226408662</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36285,7 +36285,7 @@
         <v>365.2785732749991</v>
       </c>
       <c r="M22" t="n">
-        <v>393.0409868901366</v>
+        <v>393.0409868901365</v>
       </c>
       <c r="N22" t="n">
         <v>390.3169421673883</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>188.1275482700158</v>
+        <v>357.2241634420896</v>
       </c>
       <c r="K23" t="n">
         <v>333.2054563520473</v>
@@ -36364,22 +36364,22 @@
         <v>450.6453395738567</v>
       </c>
       <c r="M23" t="n">
-        <v>982.9326345813985</v>
+        <v>533.419101088566</v>
       </c>
       <c r="N23" t="n">
-        <v>546.7107923205513</v>
+        <v>984.0577167325355</v>
       </c>
       <c r="O23" t="n">
-        <v>807.5787701057095</v>
+        <v>502.7735374394198</v>
       </c>
       <c r="P23" t="n">
         <v>394.2560863105253</v>
       </c>
       <c r="Q23" t="n">
-        <v>247.4105616249819</v>
+        <v>329.5693683270629</v>
       </c>
       <c r="R23" t="n">
-        <v>57.64490038661711</v>
+        <v>123.3613202595996</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>93.03955272770824</v>
       </c>
       <c r="K24" t="n">
-        <v>254.5156756082065</v>
+        <v>237.9636821324931</v>
       </c>
       <c r="L24" t="n">
         <v>366.7619827807558</v>
       </c>
       <c r="M24" t="n">
-        <v>447.546326953198</v>
+        <v>464.0983204289114</v>
       </c>
       <c r="N24" t="n">
         <v>473.9457332955739</v>
@@ -36522,13 +36522,13 @@
         <v>365.2785732749991</v>
       </c>
       <c r="M25" t="n">
-        <v>393.0409868901365</v>
+        <v>393.0409868901371</v>
       </c>
       <c r="N25" t="n">
         <v>390.3169421673883</v>
       </c>
       <c r="O25" t="n">
-        <v>347.9773194581134</v>
+        <v>347.9773194581128</v>
       </c>
       <c r="P25" t="n">
         <v>280.867991602951</v>
@@ -36595,28 +36595,28 @@
         <v>188.1275482700158</v>
       </c>
       <c r="K26" t="n">
-        <v>657.350868923212</v>
+        <v>333.2054563520473</v>
       </c>
       <c r="L26" t="n">
         <v>868.3065541243071</v>
       </c>
       <c r="M26" t="n">
-        <v>676.5555144207896</v>
+        <v>533.419101088566</v>
       </c>
       <c r="N26" t="n">
-        <v>546.7107923205513</v>
+        <v>984.0577167325355</v>
       </c>
       <c r="O26" t="n">
-        <v>883.5737187021651</v>
+        <v>738.3084828090069</v>
       </c>
       <c r="P26" t="n">
-        <v>394.2560863105253</v>
+        <v>716.054794482008</v>
       </c>
       <c r="Q26" t="n">
-        <v>459.7255522848865</v>
+        <v>247.4105616249819</v>
       </c>
       <c r="R26" t="n">
-        <v>57.64490038661711</v>
+        <v>123.3613202595996</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>93.03955272770824</v>
       </c>
       <c r="K27" t="n">
-        <v>254.5156756082065</v>
+        <v>237.9636821324931</v>
       </c>
       <c r="L27" t="n">
         <v>366.7619827807558</v>
@@ -36695,7 +36695,7 @@
         <v>157.0938226408662</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>16.55199347571324</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,25 +36832,25 @@
         <v>357.2241634420896</v>
       </c>
       <c r="K29" t="n">
-        <v>333.2054563520473</v>
+        <v>657.350868923212</v>
       </c>
       <c r="L29" t="n">
-        <v>807.0300590004717</v>
+        <v>868.3065541243071</v>
       </c>
       <c r="M29" t="n">
-        <v>982.9326345813985</v>
+        <v>533.419101088566</v>
       </c>
       <c r="N29" t="n">
-        <v>984.0577167325355</v>
+        <v>546.7107923205513</v>
       </c>
       <c r="O29" t="n">
         <v>502.7735374394198</v>
       </c>
       <c r="P29" t="n">
-        <v>394.2560863105253</v>
+        <v>716.054794482008</v>
       </c>
       <c r="Q29" t="n">
-        <v>247.4105616249819</v>
+        <v>427.050403663316</v>
       </c>
       <c r="R29" t="n">
         <v>123.3613202595996</v>
@@ -36914,13 +36914,13 @@
         <v>237.9636821324931</v>
       </c>
       <c r="L30" t="n">
-        <v>383.3139762564692</v>
+        <v>366.7619827807558</v>
       </c>
       <c r="M30" t="n">
         <v>447.546326953198</v>
       </c>
       <c r="N30" t="n">
-        <v>473.9457332955739</v>
+        <v>490.497726771287</v>
       </c>
       <c r="O30" t="n">
         <v>411.1235155762907</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>44.58469615123391</v>
+        <v>44.58469615123397</v>
       </c>
       <c r="K31" t="n">
-        <v>204.4146715666653</v>
+        <v>204.4146715666654</v>
       </c>
       <c r="L31" t="n">
         <v>317.6677097768837</v>
       </c>
       <c r="M31" t="n">
-        <v>345.4301233920212</v>
+        <v>345.4301233920213</v>
       </c>
       <c r="N31" t="n">
         <v>342.706078669273</v>
       </c>
       <c r="O31" t="n">
-        <v>300.3664559599975</v>
+        <v>300.3664559599976</v>
       </c>
       <c r="P31" t="n">
         <v>233.2571281048356</v>
       </c>
       <c r="Q31" t="n">
-        <v>77.2172860917142</v>
+        <v>77.21728609171426</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>357.2241634420896</v>
+        <v>188.1275482700158</v>
       </c>
       <c r="K32" t="n">
-        <v>657.350868923212</v>
+        <v>333.2054563520473</v>
       </c>
       <c r="L32" t="n">
         <v>450.6453395738567</v>
       </c>
       <c r="M32" t="n">
-        <v>533.419101088566</v>
+        <v>625.8502142601284</v>
       </c>
       <c r="N32" t="n">
-        <v>546.7107923205513</v>
+        <v>984.0577167325355</v>
       </c>
       <c r="O32" t="n">
-        <v>854.3933086694911</v>
+        <v>883.5737187021651</v>
       </c>
       <c r="P32" t="n">
         <v>716.054794482008</v>
@@ -37090,7 +37090,7 @@
         <v>459.7255522848865</v>
       </c>
       <c r="R32" t="n">
-        <v>123.3613202595996</v>
+        <v>57.64490038661711</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>473.9457332955739</v>
       </c>
       <c r="O33" t="n">
-        <v>427.6755090520039</v>
+        <v>411.1235155762907</v>
       </c>
       <c r="P33" t="n">
-        <v>310.4345167986727</v>
+        <v>326.9865102743859</v>
       </c>
       <c r="Q33" t="n">
         <v>157.0938226408662</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>46.76484984685399</v>
+        <v>46.7648498468541</v>
       </c>
       <c r="K34" t="n">
-        <v>206.5948252622854</v>
+        <v>206.5948252622855</v>
       </c>
       <c r="L34" t="n">
-        <v>319.8478634725038</v>
+        <v>319.8478634725039</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6102770876413</v>
+        <v>347.6102770876414</v>
       </c>
       <c r="N34" t="n">
-        <v>344.886232364893</v>
+        <v>344.8862323648931</v>
       </c>
       <c r="O34" t="n">
-        <v>302.5466096556175</v>
+        <v>302.5466096556177</v>
       </c>
       <c r="P34" t="n">
-        <v>235.4372818004557</v>
+        <v>235.4372818004558</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.39743978733428</v>
+        <v>79.39743978733439</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>188.1275482700158</v>
+        <v>357.2241634420896</v>
       </c>
       <c r="K35" t="n">
-        <v>657.350868923212</v>
+        <v>333.2054563520473</v>
       </c>
       <c r="L35" t="n">
-        <v>868.3065541243071</v>
+        <v>450.6453395738567</v>
       </c>
       <c r="M35" t="n">
-        <v>545.9312401260726</v>
+        <v>533.419101088566</v>
       </c>
       <c r="N35" t="n">
-        <v>546.7107923205513</v>
+        <v>810.1342351361156</v>
       </c>
       <c r="O35" t="n">
         <v>502.7735374394198</v>
       </c>
       <c r="P35" t="n">
-        <v>394.2560863105253</v>
+        <v>716.054794482008</v>
       </c>
       <c r="Q35" t="n">
         <v>247.4105616249819</v>
@@ -37391,10 +37391,10 @@
         <v>366.7619827807558</v>
       </c>
       <c r="M36" t="n">
-        <v>464.0983204289114</v>
+        <v>447.546326953198</v>
       </c>
       <c r="N36" t="n">
-        <v>473.9457332955739</v>
+        <v>490.497726771287</v>
       </c>
       <c r="O36" t="n">
         <v>411.1235155762907</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.19555964934925</v>
+        <v>92.19555964934932</v>
       </c>
       <c r="K37" t="n">
         <v>252.0255350647807</v>
@@ -37470,19 +37470,19 @@
         <v>365.2785732749991</v>
       </c>
       <c r="M37" t="n">
-        <v>393.0409868901366</v>
+        <v>393.0409868901367</v>
       </c>
       <c r="N37" t="n">
         <v>390.3169421673883</v>
       </c>
       <c r="O37" t="n">
-        <v>347.9773194581128</v>
+        <v>347.9773194581129</v>
       </c>
       <c r="P37" t="n">
         <v>280.867991602951</v>
       </c>
       <c r="Q37" t="n">
-        <v>124.8281495898295</v>
+        <v>124.8281495898296</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>188.1275482700158</v>
       </c>
       <c r="K38" t="n">
-        <v>333.2054563520473</v>
+        <v>333.2054563520472</v>
       </c>
       <c r="L38" t="n">
-        <v>450.6453395738567</v>
+        <v>450.6453395738565</v>
       </c>
       <c r="M38" t="n">
-        <v>533.419101088566</v>
+        <v>850.3909428357031</v>
       </c>
       <c r="N38" t="n">
-        <v>984.0577167325355</v>
+        <v>984.0577167325353</v>
       </c>
       <c r="O38" t="n">
-        <v>754.0289593135741</v>
+        <v>502.7735374394196</v>
       </c>
       <c r="P38" t="n">
-        <v>394.2560863105253</v>
+        <v>394.2560863105252</v>
       </c>
       <c r="Q38" t="n">
-        <v>247.4105616249819</v>
+        <v>247.4105616249817</v>
       </c>
       <c r="R38" t="n">
-        <v>123.3613202595996</v>
+        <v>57.64490038661705</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>93.03955272770824</v>
+        <v>93.03955272770821</v>
       </c>
       <c r="K39" t="n">
-        <v>237.9636821324931</v>
+        <v>237.963682132493</v>
       </c>
       <c r="L39" t="n">
-        <v>383.3139762564692</v>
+        <v>366.7619827807557</v>
       </c>
       <c r="M39" t="n">
-        <v>447.546326953198</v>
+        <v>447.5463269531979</v>
       </c>
       <c r="N39" t="n">
-        <v>473.9457332955739</v>
+        <v>473.9457332955737</v>
       </c>
       <c r="O39" t="n">
-        <v>411.1235155762907</v>
+        <v>427.6755090520048</v>
       </c>
       <c r="P39" t="n">
-        <v>310.4345167986727</v>
+        <v>310.4345167986726</v>
       </c>
       <c r="Q39" t="n">
-        <v>157.0938226408662</v>
+        <v>157.0938226408661</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.19555964934925</v>
+        <v>92.19555964934929</v>
       </c>
       <c r="K40" t="n">
         <v>252.0255350647807</v>
@@ -37719,7 +37719,7 @@
         <v>280.867991602951</v>
       </c>
       <c r="Q40" t="n">
-        <v>124.8281495898295</v>
+        <v>124.8281495898296</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>188.1275482700158</v>
       </c>
       <c r="K41" t="n">
-        <v>576.4766451594869</v>
+        <v>333.2054563520473</v>
       </c>
       <c r="L41" t="n">
         <v>450.6453395738567</v>
@@ -37789,7 +37789,7 @@
         <v>533.419101088566</v>
       </c>
       <c r="N41" t="n">
-        <v>546.7107923205513</v>
+        <v>789.9819811279904</v>
       </c>
       <c r="O41" t="n">
         <v>502.7735374394198</v>
@@ -37862,7 +37862,7 @@
         <v>237.9636821324931</v>
       </c>
       <c r="L42" t="n">
-        <v>383.3139762564694</v>
+        <v>366.7619827807558</v>
       </c>
       <c r="M42" t="n">
         <v>447.546326953198</v>
@@ -37880,7 +37880,7 @@
         <v>157.0938226408662</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>16.55199347571369</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.19555964934925</v>
+        <v>92.19555964934956</v>
       </c>
       <c r="K43" t="n">
         <v>252.0255350647807</v>
@@ -37944,7 +37944,7 @@
         <v>365.2785732749991</v>
       </c>
       <c r="M43" t="n">
-        <v>393.0409868901366</v>
+        <v>393.0409868901365</v>
       </c>
       <c r="N43" t="n">
         <v>390.3169421673883</v>
@@ -38020,7 +38020,7 @@
         <v>333.2054563520473</v>
       </c>
       <c r="L44" t="n">
-        <v>693.9165283812964</v>
+        <v>450.6453395738567</v>
       </c>
       <c r="M44" t="n">
         <v>533.419101088566</v>
@@ -38032,10 +38032,10 @@
         <v>502.7735374394198</v>
       </c>
       <c r="P44" t="n">
-        <v>394.2560863105253</v>
+        <v>425.2122844580593</v>
       </c>
       <c r="Q44" t="n">
-        <v>247.4105616249819</v>
+        <v>459.7255522848865</v>
       </c>
       <c r="R44" t="n">
         <v>57.64490038661711</v>
@@ -38099,7 +38099,7 @@
         <v>237.9636821324931</v>
       </c>
       <c r="L45" t="n">
-        <v>366.7619827807558</v>
+        <v>383.3139762564694</v>
       </c>
       <c r="M45" t="n">
         <v>447.546326953198</v>
@@ -38117,7 +38117,7 @@
         <v>157.0938226408662</v>
       </c>
       <c r="R45" t="n">
-        <v>16.55199347571369</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.19555964934926</v>
+        <v>92.19555964934924</v>
       </c>
       <c r="K46" t="n">
         <v>252.0255350647807</v>
